--- a/tests/test1/d40/N, 0.3.xlsx
+++ b/tests/test1/d40/N, 0.3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -532,13 +532,13 @@
         <v>359.4707842962097</v>
       </c>
       <c r="F2" t="n">
-        <v>35.07518423778768</v>
+        <v>35.07518423780505</v>
       </c>
       <c r="G2" t="n">
-        <v>88.35897101727382</v>
+        <v>88.35897101726927</v>
       </c>
       <c r="H2" t="n">
-        <v>10.72634320421048</v>
+        <v>10.72634320421765</v>
       </c>
       <c r="I2" t="n">
         <v>22.91574594830793</v>
@@ -547,16 +547,16 @@
         <v>38.28184535070894</v>
       </c>
       <c r="K2" t="n">
-        <v>22.6724104929313</v>
+        <v>22.67241049293222</v>
       </c>
       <c r="L2" t="n">
-        <v>35.57503922032862</v>
+        <v>35.57503922034904</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1378505800101356</v>
+        <v>0.1378505800099897</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6241157058198404</v>
+        <v>0.624115705817285</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.000325999999997606</v>
+        <v>0.0002621000000004869</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>359.512696390901</v>
       </c>
       <c r="F3" t="n">
-        <v>33.41183341096377</v>
+        <v>33.41183341095781</v>
       </c>
       <c r="G3" t="n">
-        <v>65.77069149720511</v>
+        <v>65.77069149720607</v>
       </c>
       <c r="H3" t="n">
-        <v>10.7637024491195</v>
+        <v>10.76370244911675</v>
       </c>
       <c r="I3" t="n">
         <v>19.69542397878576</v>
@@ -599,16 +599,16 @@
         <v>43.53167591109425</v>
       </c>
       <c r="K3" t="n">
-        <v>19.33480969654537</v>
+        <v>19.33480969654503</v>
       </c>
       <c r="L3" t="n">
-        <v>38.25247640643033</v>
+        <v>38.25247640642228</v>
       </c>
       <c r="M3" t="n">
-        <v>0.139992015363614</v>
+        <v>0.1399920153636682</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7135876440785824</v>
+        <v>0.7135876440795428</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0003071000000005597</v>
+        <v>0.0001929000000018277</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.1250273542216417</v>
       </c>
       <c r="F4" t="n">
-        <v>35.85382387592826</v>
+        <v>35.85382387592946</v>
       </c>
       <c r="G4" t="n">
-        <v>140.4048857855092</v>
+        <v>140.4048857855095</v>
       </c>
       <c r="H4" t="n">
-        <v>3.381019369123383</v>
+        <v>3.381019369123627</v>
       </c>
       <c r="I4" t="n">
         <v>7.555476939874645</v>
@@ -651,16 +651,16 @@
         <v>38.51157200784191</v>
       </c>
       <c r="K4" t="n">
-        <v>7.257475899268857</v>
+        <v>7.257475899268958</v>
       </c>
       <c r="L4" t="n">
-        <v>30.3541946709378</v>
+        <v>30.35419467093878</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1126265237428993</v>
+        <v>0.1126265237428911</v>
       </c>
       <c r="N4" t="n">
-        <v>2.028452703868624</v>
+        <v>2.028452703868751</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0002941000000014071</v>
+        <v>0.0001900000000034652</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>359.4634114579709</v>
       </c>
       <c r="F5" t="n">
-        <v>33.81089263769746</v>
+        <v>33.81089263770222</v>
       </c>
       <c r="G5" t="n">
-        <v>88.49365927088128</v>
+        <v>88.49365927088078</v>
       </c>
       <c r="H5" t="n">
-        <v>10.1262598845866</v>
+        <v>10.12625988458849</v>
       </c>
       <c r="I5" t="n">
         <v>22.79928386085001</v>
@@ -703,16 +703,16 @@
         <v>38.17369412214205</v>
       </c>
       <c r="K5" t="n">
-        <v>22.41960589320004</v>
+        <v>22.41960589320034</v>
       </c>
       <c r="L5" t="n">
-        <v>34.08908487612441</v>
+        <v>34.08908487612981</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1632706232329311</v>
+        <v>0.1632706232328824</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8377158933232396</v>
+        <v>0.8377158933225267</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0003409000000011986</v>
+        <v>0.0001883999999989783</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9848314878572</v>
       </c>
       <c r="F6" t="n">
-        <v>37.02769286783933</v>
+        <v>37.02769286783903</v>
       </c>
       <c r="G6" t="n">
-        <v>176.3060357201217</v>
+        <v>176.3060357201212</v>
       </c>
       <c r="H6" t="n">
-        <v>9.804405382975157</v>
+        <v>9.804405382974577</v>
       </c>
       <c r="I6" t="n">
         <v>5.187802718568502</v>
@@ -755,16 +755,16 @@
         <v>26.0718196415876</v>
       </c>
       <c r="K6" t="n">
-        <v>4.837546565206826</v>
+        <v>4.837546565206813</v>
       </c>
       <c r="L6" t="n">
-        <v>22.75153133741741</v>
+        <v>22.75153133741781</v>
       </c>
       <c r="M6" t="n">
-        <v>0.09526756088699703</v>
+        <v>0.09526756088699727</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4179279631739947</v>
+        <v>0.4179279631738144</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0006960000000013622</v>
+        <v>0.0001891000000000531</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.8676317539345</v>
       </c>
       <c r="F7" t="n">
-        <v>33.88110813733849</v>
+        <v>33.88110813733846</v>
       </c>
       <c r="G7" t="n">
-        <v>38.57358216381327</v>
+        <v>38.57358216381337</v>
       </c>
       <c r="H7" t="n">
-        <v>11.24081956810168</v>
+        <v>11.24081956810162</v>
       </c>
       <c r="I7" t="n">
         <v>13.05313401373524</v>
@@ -810,13 +810,13 @@
         <v>12.80484565365081</v>
       </c>
       <c r="L7" t="n">
-        <v>42.87677001926281</v>
+        <v>42.8767700192627</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1075996919204263</v>
+        <v>0.1075996919204269</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7746269087474862</v>
+        <v>0.7746269087474988</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0005975999999989767</v>
+        <v>0.0002369999999984884</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.09353510204625504</v>
       </c>
       <c r="F8" t="n">
-        <v>36.51141040295261</v>
+        <v>36.51141040295441</v>
       </c>
       <c r="G8" t="n">
-        <v>169.6412085179427</v>
+        <v>169.6412085179423</v>
       </c>
       <c r="H8" t="n">
-        <v>8.448208524984608</v>
+        <v>8.448208524985287</v>
       </c>
       <c r="I8" t="n">
         <v>7.610879869883244</v>
@@ -859,16 +859,16 @@
         <v>29.73534467829719</v>
       </c>
       <c r="K8" t="n">
-        <v>7.27274560091331</v>
+        <v>7.272745600913501</v>
       </c>
       <c r="L8" t="n">
-        <v>24.11640734352467</v>
+        <v>24.11640734352569</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09558538704019595</v>
+        <v>0.09558538704018468</v>
       </c>
       <c r="N8" t="n">
-        <v>1.146869213176748</v>
+        <v>1.146869213176882</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.001140499999998212</v>
+        <v>0.0001945999999932724</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>359.4928422888599</v>
       </c>
       <c r="F9" t="n">
-        <v>29.48323078327006</v>
+        <v>29.48323078326927</v>
       </c>
       <c r="G9" t="n">
-        <v>8.853944133447836</v>
+        <v>8.853944133447659</v>
       </c>
       <c r="H9" t="n">
-        <v>16.68792368964135</v>
+        <v>16.68792368964068</v>
       </c>
       <c r="I9" t="n">
         <v>5.176513718887975</v>
@@ -911,16 +911,16 @@
         <v>52.00243301911608</v>
       </c>
       <c r="K9" t="n">
-        <v>4.890485685579577</v>
+        <v>4.890485685579513</v>
       </c>
       <c r="L9" t="n">
-        <v>46.82305681687235</v>
+        <v>46.82305681687076</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1385182400374502</v>
+        <v>0.1385182400374583</v>
       </c>
       <c r="N9" t="n">
-        <v>1.235198828685084</v>
+        <v>1.235198828685018</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0006666000000024042</v>
+        <v>0.0001891999999941163</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.9726385850141</v>
       </c>
       <c r="F10" t="n">
-        <v>35.76436853832713</v>
+        <v>35.76436853832345</v>
       </c>
       <c r="G10" t="n">
-        <v>158.7386174843544</v>
+        <v>158.7386174843558</v>
       </c>
       <c r="H10" t="n">
-        <v>13.06217749205261</v>
+        <v>13.0621774920512</v>
       </c>
       <c r="I10" t="n">
         <v>20.58725291436772</v>
@@ -963,16 +963,16 @@
         <v>22.65229206771021</v>
       </c>
       <c r="K10" t="n">
-        <v>20.24316412779458</v>
+        <v>20.24316412779419</v>
       </c>
       <c r="L10" t="n">
-        <v>19.760843696224</v>
+        <v>19.76084369622156</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1163950262313253</v>
+        <v>0.1163950262313576</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6035622917911831</v>
+        <v>0.6035622917917376</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0003300999999993337</v>
+        <v>0.000240400000002694</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9996674335863</v>
       </c>
       <c r="F11" t="n">
-        <v>36.05382421678954</v>
+        <v>36.05382421678963</v>
       </c>
       <c r="G11" t="n">
-        <v>358.087964766334</v>
+        <v>358.0879647663338</v>
       </c>
       <c r="H11" t="n">
-        <v>4.400358863029532</v>
+        <v>4.400358863029267</v>
       </c>
       <c r="I11" t="n">
         <v>1.809925286532582</v>
@@ -1018,13 +1018,13 @@
         <v>1.470829290421059</v>
       </c>
       <c r="L11" t="n">
-        <v>38.72771228679725</v>
+        <v>38.72771228679702</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1116242616021091</v>
+        <v>0.1116242616021098</v>
       </c>
       <c r="N11" t="n">
-        <v>1.78832198308293</v>
+        <v>1.788321983083017</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003785000000000593</v>
+        <v>0.0001926999999994905</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>359.6005240487611</v>
       </c>
       <c r="F12" t="n">
-        <v>34.230681660537</v>
+        <v>34.23068166053816</v>
       </c>
       <c r="G12" t="n">
-        <v>43.75981034575369</v>
+        <v>43.75981034574753</v>
       </c>
       <c r="H12" t="n">
-        <v>3.258050223672334</v>
+        <v>3.25805022367304</v>
       </c>
       <c r="I12" t="n">
         <v>6.190703086112159</v>
@@ -1067,16 +1067,16 @@
         <v>34.65047640795692</v>
       </c>
       <c r="K12" t="n">
-        <v>6.026921790331167</v>
+        <v>6.02692179033127</v>
       </c>
       <c r="L12" t="n">
-        <v>34.62862574423837</v>
+        <v>34.62862574424044</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1090340242491831</v>
+        <v>0.1090340242491732</v>
       </c>
       <c r="N12" t="n">
-        <v>2.425889767134617</v>
+        <v>2.425889767135194</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0004317000000000348</v>
+        <v>0.0002447000000032062</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>359.4751635776084</v>
       </c>
       <c r="F13" t="n">
-        <v>29.88897478110448</v>
+        <v>29.88897478110515</v>
       </c>
       <c r="G13" t="n">
-        <v>9.492469373371256</v>
+        <v>9.492469373371712</v>
       </c>
       <c r="H13" t="n">
-        <v>10.57277536497103</v>
+        <v>10.57277536497092</v>
       </c>
       <c r="I13" t="n">
         <v>4.573663047849449</v>
@@ -1119,16 +1119,16 @@
         <v>40.78812565334459</v>
       </c>
       <c r="K13" t="n">
-        <v>4.296553878947923</v>
+        <v>4.296553878947974</v>
       </c>
       <c r="L13" t="n">
-        <v>39.89708993231092</v>
+        <v>39.89708993231146</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1388861329027845</v>
+        <v>0.1388861329027799</v>
       </c>
       <c r="N13" t="n">
-        <v>6.353480323403764</v>
+        <v>6.353480323403636</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0005449999999989075</v>
+        <v>0.0001961000000036961</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>359.858104250553</v>
       </c>
       <c r="F14" t="n">
-        <v>33.93538669040172</v>
+        <v>33.93538669040115</v>
       </c>
       <c r="G14" t="n">
-        <v>24.73399757709444</v>
+        <v>24.73399757709387</v>
       </c>
       <c r="H14" t="n">
-        <v>10.88102407342538</v>
+        <v>10.88102407342542</v>
       </c>
       <c r="I14" t="n">
         <v>8.875985220654171</v>
@@ -1171,16 +1171,16 @@
         <v>50.60676945916118</v>
       </c>
       <c r="K14" t="n">
-        <v>8.62534046617051</v>
+        <v>8.625340466170483</v>
       </c>
       <c r="L14" t="n">
-        <v>43.67220589905116</v>
+        <v>43.67220589905069</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1161783356200274</v>
+        <v>0.11617833562003</v>
       </c>
       <c r="N14" t="n">
-        <v>0.5767618151478877</v>
+        <v>0.5767618151479171</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003434000000019921</v>
+        <v>0.0001886999999953787</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.213717198615172</v>
       </c>
       <c r="F15" t="n">
-        <v>36.06871849474861</v>
+        <v>36.06871849474809</v>
       </c>
       <c r="G15" t="n">
-        <v>159.3541796087578</v>
+        <v>159.3541796087608</v>
       </c>
       <c r="H15" t="n">
-        <v>7.220357330724795</v>
+        <v>7.220357330725268</v>
       </c>
       <c r="I15" t="n">
         <v>10.07090146044474</v>
@@ -1223,16 +1223,16 @@
         <v>32.50749114378547</v>
       </c>
       <c r="K15" t="n">
-        <v>9.761127363204123</v>
+        <v>9.761127363204098</v>
       </c>
       <c r="L15" t="n">
-        <v>25.71641711745553</v>
+        <v>25.7164171174543</v>
       </c>
       <c r="M15" t="n">
-        <v>0.09560850626284674</v>
+        <v>0.09560850626285232</v>
       </c>
       <c r="N15" t="n">
-        <v>1.495179030554983</v>
+        <v>1.49517903055533</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0005552000000008661</v>
+        <v>0.0001913000000044462</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>359.5345982666241</v>
       </c>
       <c r="F16" t="n">
-        <v>34.06274124527305</v>
+        <v>34.06274124526367</v>
       </c>
       <c r="G16" t="n">
-        <v>82.56856616872376</v>
+        <v>82.5685661687267</v>
       </c>
       <c r="H16" t="n">
-        <v>11.10394385025688</v>
+        <v>11.10394385025264</v>
       </c>
       <c r="I16" t="n">
         <v>23.38916312472101</v>
@@ -1275,16 +1275,16 @@
         <v>40.02752228674725</v>
       </c>
       <c r="K16" t="n">
-        <v>23.03997102126479</v>
+        <v>23.03997102126431</v>
       </c>
       <c r="L16" t="n">
-        <v>36.04381223861095</v>
+        <v>36.04381223859918</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1512785961914559</v>
+        <v>0.1512785961915458</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7407560189453952</v>
+        <v>0.7407560189467894</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0004318999999988193</v>
+        <v>0.0002618999999981497</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.09369854446306079</v>
       </c>
       <c r="F17" t="n">
-        <v>36.11946024287929</v>
+        <v>36.11946024287955</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9552769942017</v>
+        <v>165.955276994202</v>
       </c>
       <c r="H17" t="n">
-        <v>6.42330075529555</v>
+        <v>6.423300755295735</v>
       </c>
       <c r="I17" t="n">
         <v>7.139827121650356</v>
@@ -1327,16 +1327,16 @@
         <v>32.14036686491941</v>
       </c>
       <c r="K17" t="n">
-        <v>6.792902121060279</v>
+        <v>6.792902121060305</v>
       </c>
       <c r="L17" t="n">
-        <v>26.20949197284824</v>
+        <v>26.20949197284827</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1048597838583873</v>
+        <v>0.1048597838583862</v>
       </c>
       <c r="N17" t="n">
-        <v>1.343559687719392</v>
+        <v>1.343559687719481</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0004232999999977949</v>
+        <v>0.0002455000000054497</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.9616153836598</v>
       </c>
       <c r="F18" t="n">
-        <v>34.08857749857593</v>
+        <v>34.0885774985726</v>
       </c>
       <c r="G18" t="n">
-        <v>41.42884561397879</v>
+        <v>41.42884561397867</v>
       </c>
       <c r="H18" t="n">
-        <v>6.985882411327323</v>
+        <v>6.985882411326181</v>
       </c>
       <c r="I18" t="n">
         <v>10.31962125775608</v>
@@ -1379,16 +1379,16 @@
         <v>46.64286093130009</v>
       </c>
       <c r="K18" t="n">
-        <v>10.05430792502637</v>
+        <v>10.05430792502615</v>
       </c>
       <c r="L18" t="n">
-        <v>38.34653943406637</v>
+        <v>38.34653943406192</v>
       </c>
       <c r="M18" t="n">
-        <v>0.08915876739062818</v>
+        <v>0.08915876739064672</v>
       </c>
       <c r="N18" t="n">
-        <v>1.01130162561289</v>
+        <v>1.01130162561341</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003236999999991497</v>
+        <v>0.0001978000000022462</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>359.9171202329936</v>
       </c>
       <c r="F19" t="n">
-        <v>33.72597029186217</v>
+        <v>33.72597029185995</v>
       </c>
       <c r="G19" t="n">
-        <v>51.7468332745291</v>
+        <v>51.74683327452959</v>
       </c>
       <c r="H19" t="n">
-        <v>7.542709740419562</v>
+        <v>7.542709740418717</v>
       </c>
       <c r="I19" t="n">
         <v>12.95212497878583</v>
@@ -1431,16 +1431,16 @@
         <v>45.29448328127268</v>
       </c>
       <c r="K19" t="n">
-        <v>12.63419880313919</v>
+        <v>12.63419880313905</v>
       </c>
       <c r="L19" t="n">
-        <v>37.62456742722126</v>
+        <v>37.62456742721827</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1120708785872528</v>
+        <v>0.112070878587269</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8809289972602341</v>
+        <v>0.8809289972605931</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003263000000011118</v>
+        <v>0.0001880000000014093</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9761714668581</v>
       </c>
       <c r="F20" t="n">
-        <v>34.84301298503201</v>
+        <v>34.84301298503452</v>
       </c>
       <c r="G20" t="n">
-        <v>121.4612881647603</v>
+        <v>121.4612881647585</v>
       </c>
       <c r="H20" t="n">
-        <v>7.704621837709261</v>
+        <v>7.704621837709955</v>
       </c>
       <c r="I20" t="n">
         <v>18.50855438297455</v>
@@ -1483,16 +1483,16 @@
         <v>34.20258136458548</v>
       </c>
       <c r="K20" t="n">
-        <v>18.26280850277329</v>
+        <v>18.26280850277346</v>
       </c>
       <c r="L20" t="n">
-        <v>28.85462372330547</v>
+        <v>28.85462372330795</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1094289408803743</v>
+        <v>0.1094289408803562</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8071631164366079</v>
+        <v>0.8071631164362003</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003203999999996654</v>
+        <v>0.0001918000000031839</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.9336990211954</v>
       </c>
       <c r="F21" t="n">
-        <v>33.64731447472509</v>
+        <v>33.64731447472573</v>
       </c>
       <c r="G21" t="n">
-        <v>16.0539743053523</v>
+        <v>16.05397430535315</v>
       </c>
       <c r="H21" t="n">
-        <v>9.800402597979824</v>
+        <v>9.800402597979456</v>
       </c>
       <c r="I21" t="n">
         <v>6.192815573298068</v>
@@ -1535,16 +1535,16 @@
         <v>51.56829656334563</v>
       </c>
       <c r="K21" t="n">
-        <v>5.912224348055507</v>
+        <v>5.912224348055545</v>
       </c>
       <c r="L21" t="n">
-        <v>42.55915063782813</v>
+        <v>42.5591506378283</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1062432624269547</v>
+        <v>0.1062432624269529</v>
       </c>
       <c r="N21" t="n">
-        <v>0.879834692675082</v>
+        <v>0.8798346926751169</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003376999999993302</v>
+        <v>0.0002078999999994835</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.7348320662148</v>
       </c>
       <c r="F22" t="n">
-        <v>34.72480610540422</v>
+        <v>34.72480610539214</v>
       </c>
       <c r="G22" t="n">
-        <v>102.7044926441537</v>
+        <v>102.704492644158</v>
       </c>
       <c r="H22" t="n">
-        <v>11.83071794240805</v>
+        <v>11.83071794240273</v>
       </c>
       <c r="I22" t="n">
         <v>27.44393404367798</v>
@@ -1587,16 +1587,16 @@
         <v>37.03369549700079</v>
       </c>
       <c r="K22" t="n">
-        <v>27.14105288950483</v>
+        <v>27.14105288950419</v>
       </c>
       <c r="L22" t="n">
-        <v>32.5725474815987</v>
+        <v>32.57254748158536</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1121747824535044</v>
+        <v>0.1121747824535886</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7079509524512171</v>
+        <v>0.7079509524528331</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003099999999989222</v>
+        <v>0.0002557999999979188</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.01558927485166555</v>
       </c>
       <c r="F23" t="n">
-        <v>36.74205931713315</v>
+        <v>36.7420593171332</v>
       </c>
       <c r="G23" t="n">
-        <v>10.25875181448043</v>
+        <v>10.25875181447884</v>
       </c>
       <c r="H23" t="n">
-        <v>2.889524372916075</v>
+        <v>2.889524372916825</v>
       </c>
       <c r="I23" t="n">
         <v>2.990958436833284</v>
@@ -1639,16 +1639,16 @@
         <v>45.11750226817573</v>
       </c>
       <c r="K23" t="n">
-        <v>2.742255168634058</v>
+        <v>2.742255168634084</v>
       </c>
       <c r="L23" t="n">
-        <v>37.58072778270603</v>
+        <v>37.58072778270698</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1084976968822598</v>
+        <v>0.1084976968822567</v>
       </c>
       <c r="N23" t="n">
-        <v>1.76116875626623</v>
+        <v>1.761168756265858</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003537999999991825</v>
+        <v>0.0001940000000004716</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.02758497595955204</v>
       </c>
       <c r="F24" t="n">
-        <v>34.49142896522338</v>
+        <v>34.49142896522093</v>
       </c>
       <c r="G24" t="n">
-        <v>47.11957534309806</v>
+        <v>47.11957534309796</v>
       </c>
       <c r="H24" t="n">
-        <v>5.262546356267557</v>
+        <v>5.262546356266896</v>
       </c>
       <c r="I24" t="n">
         <v>9.419044849063178</v>
@@ -1691,16 +1691,16 @@
         <v>46.36511176493712</v>
       </c>
       <c r="K24" t="n">
-        <v>9.131993488212609</v>
+        <v>9.13199348821243</v>
       </c>
       <c r="L24" t="n">
-        <v>36.63662874694617</v>
+        <v>36.63662874694314</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1211158407340435</v>
+        <v>0.1211158407340621</v>
       </c>
       <c r="N24" t="n">
-        <v>1.662967727297</v>
+        <v>1.662967727297337</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003519999999994639</v>
+        <v>0.0001885000000001469</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.799903583094</v>
       </c>
       <c r="F25" t="n">
-        <v>34.45449683855801</v>
+        <v>34.45449683853447</v>
       </c>
       <c r="G25" t="n">
-        <v>90.88831522318927</v>
+        <v>90.88831522319065</v>
       </c>
       <c r="H25" t="n">
-        <v>12.28011733262767</v>
+        <v>12.28011733261696</v>
       </c>
       <c r="I25" t="n">
         <v>26.76285261071862</v>
@@ -1743,16 +1743,16 @@
         <v>40.82017006479759</v>
       </c>
       <c r="K25" t="n">
-        <v>26.5357015312779</v>
+        <v>26.53570153127655</v>
       </c>
       <c r="L25" t="n">
-        <v>35.33141042261357</v>
+        <v>35.33141042258668</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1031277963086963</v>
+        <v>0.1031277963088441</v>
       </c>
       <c r="N25" t="n">
-        <v>0.6991487557106235</v>
+        <v>0.6991487557138907</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0004178999999986388</v>
+        <v>0.000187799999999072</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>359.6012363482052</v>
       </c>
       <c r="F26" t="n">
-        <v>34.73678181452274</v>
+        <v>34.73678181452444</v>
       </c>
       <c r="G26" t="n">
-        <v>162.950167575291</v>
+        <v>162.9501675752885</v>
       </c>
       <c r="H26" t="n">
-        <v>5.856970574904883</v>
+        <v>5.856970574904898</v>
       </c>
       <c r="I26" t="n">
         <v>6.902497117049264</v>
@@ -1795,16 +1795,16 @@
         <v>23.99227987179233</v>
       </c>
       <c r="K26" t="n">
-        <v>6.712482187949466</v>
+        <v>6.712482187949645</v>
       </c>
       <c r="L26" t="n">
-        <v>25.57542342952501</v>
+        <v>25.57542342952681</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1146212332529306</v>
+        <v>0.1146212332529167</v>
       </c>
       <c r="N26" t="n">
-        <v>1.618719877726117</v>
+        <v>1.618719877726258</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003704000000013252</v>
+        <v>0.0002992000000006101</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.9315180731002</v>
       </c>
       <c r="F27" t="n">
-        <v>36.33830606184212</v>
+        <v>36.33830606184024</v>
       </c>
       <c r="G27" t="n">
-        <v>157.7723224585264</v>
+        <v>157.7723224585279</v>
       </c>
       <c r="H27" t="n">
-        <v>9.002831593717383</v>
+        <v>9.002831593717028</v>
       </c>
       <c r="I27" t="n">
         <v>12.65928260151178</v>
@@ -1847,16 +1847,16 @@
         <v>27.0400161198854</v>
       </c>
       <c r="K27" t="n">
-        <v>12.39617936410946</v>
+        <v>12.3961793641093</v>
       </c>
       <c r="L27" t="n">
-        <v>24.28756821049306</v>
+        <v>24.28756821049141</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1126458322017753</v>
+        <v>0.1126458322017903</v>
       </c>
       <c r="N27" t="n">
-        <v>0.5106132992837463</v>
+        <v>0.5106132992840179</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0004166999999988263</v>
+        <v>0.0002314999999981637</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.941202036502</v>
       </c>
       <c r="F28" t="n">
-        <v>34.36539453328109</v>
+        <v>34.36539453328097</v>
       </c>
       <c r="G28" t="n">
-        <v>56.93243723127034</v>
+        <v>56.93243723126968</v>
       </c>
       <c r="H28" t="n">
-        <v>7.266574675595146</v>
+        <v>7.266574675595192</v>
       </c>
       <c r="I28" t="n">
         <v>13.26276120110444</v>
@@ -1902,13 +1902,13 @@
         <v>13.02150270095763</v>
       </c>
       <c r="L28" t="n">
-        <v>37.47035518128549</v>
+        <v>37.47035518128548</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1043404969186393</v>
+        <v>0.1043404969186395</v>
       </c>
       <c r="N28" t="n">
-        <v>0.905063571763287</v>
+        <v>0.9050635717632589</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003082000000027563</v>
+        <v>0.0001924999999971533</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>359.6143183754303</v>
       </c>
       <c r="F29" t="n">
-        <v>33.77696488853925</v>
+        <v>33.77696488854497</v>
       </c>
       <c r="G29" t="n">
-        <v>70.51384933944557</v>
+        <v>70.51384933944469</v>
       </c>
       <c r="H29" t="n">
-        <v>11.39866635623057</v>
+        <v>11.39866635623325</v>
       </c>
       <c r="I29" t="n">
         <v>21.4548724568795</v>
@@ -1951,16 +1951,16 @@
         <v>43.97582692503995</v>
       </c>
       <c r="K29" t="n">
-        <v>21.17505600405864</v>
+        <v>21.17505600405894</v>
       </c>
       <c r="L29" t="n">
-        <v>38.30926135080215</v>
+        <v>38.30926135080971</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1301400634112405</v>
+        <v>0.1301400634111926</v>
       </c>
       <c r="N29" t="n">
-        <v>0.7069569243766556</v>
+        <v>0.7069569243757884</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0002981999999995821</v>
+        <v>0.000193899999999303</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.866100286639</v>
       </c>
       <c r="F30" t="n">
-        <v>35.64981930055782</v>
+        <v>35.64981930055352</v>
       </c>
       <c r="G30" t="n">
-        <v>129.8368472119807</v>
+        <v>129.8368472119854</v>
       </c>
       <c r="H30" t="n">
-        <v>8.362761904484143</v>
+        <v>8.362761904483078</v>
       </c>
       <c r="I30" t="n">
         <v>18.54236195781179</v>
@@ -2003,16 +2003,16 @@
         <v>31.31086349853181</v>
       </c>
       <c r="K30" t="n">
-        <v>18.28895618645251</v>
+        <v>18.28895618645225</v>
       </c>
       <c r="L30" t="n">
-        <v>28.02010873793533</v>
+        <v>28.02010873793094</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1022501203192412</v>
+        <v>0.1022501203192703</v>
       </c>
       <c r="N30" t="n">
-        <v>0.6255284119275101</v>
+        <v>0.6255284119279707</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0003273999999997557</v>
+        <v>0.0001911999999961722</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.1252446378913628</v>
       </c>
       <c r="F31" t="n">
-        <v>36.19762236310252</v>
+        <v>36.19762236310329</v>
       </c>
       <c r="G31" t="n">
-        <v>166.128717412025</v>
+        <v>166.128717412023</v>
       </c>
       <c r="H31" t="n">
-        <v>7.507205026258032</v>
+        <v>7.507205026257694</v>
       </c>
       <c r="I31" t="n">
         <v>8.182083613794248</v>
@@ -2055,16 +2055,16 @@
         <v>30.68820409084247</v>
       </c>
       <c r="K31" t="n">
-        <v>7.816575392328943</v>
+        <v>7.816575392329018</v>
       </c>
       <c r="L31" t="n">
-        <v>25.06816859001013</v>
+        <v>25.06816859001139</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1086612281225533</v>
+        <v>0.1086612281225455</v>
       </c>
       <c r="N31" t="n">
-        <v>1.086777769511174</v>
+        <v>1.08677776951091</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003601000000017507</v>
+        <v>0.0004233999999954108</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>0.3792157994329175</v>
       </c>
       <c r="F32" t="n">
-        <v>33.09452098950395</v>
+        <v>33.09452098950578</v>
       </c>
       <c r="G32" t="n">
-        <v>142.3054634112353</v>
+        <v>142.3054634112313</v>
       </c>
       <c r="H32" t="n">
-        <v>6.931718324283938</v>
+        <v>6.931718324284131</v>
       </c>
       <c r="I32" t="n">
         <v>15.61526795852661</v>
@@ -2107,16 +2107,16 @@
         <v>34.69011036954826</v>
       </c>
       <c r="K32" t="n">
-        <v>15.16274526246698</v>
+        <v>15.16274526246713</v>
       </c>
       <c r="L32" t="n">
-        <v>24.75738683831369</v>
+        <v>24.75738683831577</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1192389588318019</v>
+        <v>0.1192389588317838</v>
       </c>
       <c r="N32" t="n">
-        <v>1.459818640731131</v>
+        <v>1.459818640730833</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.001715999999998274</v>
+        <v>0.0002303999999995199</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0.124427164275475</v>
       </c>
       <c r="F33" t="n">
-        <v>32.47270396435028</v>
+        <v>32.47270396435072</v>
       </c>
       <c r="G33" t="n">
-        <v>53.0630873896278</v>
+        <v>53.06308738962873</v>
       </c>
       <c r="H33" t="n">
-        <v>10.36010408662978</v>
+        <v>10.36010408662977</v>
       </c>
       <c r="I33" t="n">
         <v>17.04592559072634</v>
@@ -2159,16 +2159,16 @@
         <v>50.4312401368904</v>
       </c>
       <c r="K33" t="n">
-        <v>16.67078285177759</v>
+        <v>16.67078285177763</v>
       </c>
       <c r="L33" t="n">
-        <v>38.96490516542617</v>
+        <v>38.96490516542645</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1131842541346408</v>
+        <v>0.1131842541346393</v>
       </c>
       <c r="N33" t="n">
-        <v>1.225501926876787</v>
+        <v>1.22550192687679</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0004524000000003525</v>
+        <v>0.0001882999999978097</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.1046683352968264</v>
       </c>
       <c r="F34" t="n">
-        <v>35.44139422043738</v>
+        <v>35.44139422043779</v>
       </c>
       <c r="G34" t="n">
-        <v>164.6245028311374</v>
+        <v>164.6245028311367</v>
       </c>
       <c r="H34" t="n">
-        <v>8.17813335149903</v>
+        <v>8.178133351498989</v>
       </c>
       <c r="I34" t="n">
         <v>9.72133225138751</v>
@@ -2211,16 +2211,16 @@
         <v>29.71000445935035</v>
       </c>
       <c r="K34" t="n">
-        <v>9.327481549064339</v>
+        <v>9.327481549064377</v>
       </c>
       <c r="L34" t="n">
-        <v>23.67549324688178</v>
+        <v>23.67549324688227</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1087011117213629</v>
+        <v>0.108701111721359</v>
       </c>
       <c r="N34" t="n">
-        <v>0.9236608388419247</v>
+        <v>0.9236608388418603</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003206000000020026</v>
+        <v>0.0006826999999987038</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.09565605153243364</v>
       </c>
       <c r="F35" t="n">
-        <v>34.47622764298691</v>
+        <v>34.47622764298745</v>
       </c>
       <c r="G35" t="n">
-        <v>56.09014756122912</v>
+        <v>56.09014756122741</v>
       </c>
       <c r="H35" t="n">
-        <v>5.161903077078705</v>
+        <v>5.161903077078989</v>
       </c>
       <c r="I35" t="n">
         <v>10.51069784481993</v>
@@ -2263,16 +2263,16 @@
         <v>45.30447558370837</v>
       </c>
       <c r="K35" t="n">
-        <v>10.22275836764677</v>
+        <v>10.22275836764681</v>
       </c>
       <c r="L35" t="n">
-        <v>35.88520334825036</v>
+        <v>35.88520334825126</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1016177996636785</v>
+        <v>0.1016177996636743</v>
       </c>
       <c r="N35" t="n">
-        <v>1.666125717390027</v>
+        <v>1.666125717389859</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0005498999999993259</v>
+        <v>0.0002828000000008046</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>359.9268494698117</v>
       </c>
       <c r="F36" t="n">
-        <v>34.67128789095064</v>
+        <v>34.67128789095005</v>
       </c>
       <c r="G36" t="n">
-        <v>5.978538428703382</v>
+        <v>5.978538428703179</v>
       </c>
       <c r="H36" t="n">
-        <v>9.203909320935676</v>
+        <v>9.203909320935258</v>
       </c>
       <c r="I36" t="n">
         <v>3.254530440680533</v>
@@ -2315,16 +2315,16 @@
         <v>52.19254532706056</v>
       </c>
       <c r="K36" t="n">
-        <v>3.027816798645949</v>
+        <v>3.027816798645911</v>
       </c>
       <c r="L36" t="n">
-        <v>43.09968284077662</v>
+        <v>43.09968284077552</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1025533826328926</v>
+        <v>0.1025533826328971</v>
       </c>
       <c r="N36" t="n">
-        <v>1.009654671736534</v>
+        <v>1.009654671736666</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0006006000000020606</v>
+        <v>0.0002423999999976445</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>0.5669210130263596</v>
       </c>
       <c r="F37" t="n">
-        <v>32.4390490112546</v>
+        <v>32.43904901125565</v>
       </c>
       <c r="G37" t="n">
-        <v>142.0478021645401</v>
+        <v>142.0478021645367</v>
       </c>
       <c r="H37" t="n">
-        <v>5.593649620532992</v>
+        <v>5.593649620533008</v>
       </c>
       <c r="I37" t="n">
         <v>13.37639473419913</v>
@@ -2367,16 +2367,16 @@
         <v>39.51197959750446</v>
       </c>
       <c r="K37" t="n">
-        <v>12.90409954742825</v>
+        <v>12.90409954742836</v>
       </c>
       <c r="L37" t="n">
-        <v>25.16372987190893</v>
+        <v>25.16372987191026</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1548791195850868</v>
+        <v>0.1548791195850721</v>
       </c>
       <c r="N37" t="n">
-        <v>2.62612754925532</v>
+        <v>2.626127549255143</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0005144999999977529</v>
+        <v>0.0002123999999952275</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.7970760202737</v>
       </c>
       <c r="F38" t="n">
-        <v>34.97339379568479</v>
+        <v>34.97339379569026</v>
       </c>
       <c r="G38" t="n">
-        <v>128.5144743309937</v>
+        <v>128.5144743309888</v>
       </c>
       <c r="H38" t="n">
-        <v>8.541267350669646</v>
+        <v>8.541267350671157</v>
       </c>
       <c r="I38" t="n">
         <v>19.54422612244915</v>
@@ -2419,16 +2419,16 @@
         <v>31.10945420982688</v>
       </c>
       <c r="K38" t="n">
-        <v>19.24154757912224</v>
+        <v>19.24154757912262</v>
       </c>
       <c r="L38" t="n">
-        <v>27.5111464287535</v>
+        <v>27.51114642875889</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1249449688586296</v>
+        <v>0.1249449688585847</v>
       </c>
       <c r="N38" t="n">
-        <v>0.7443870902274509</v>
+        <v>0.7443870902268165</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003337999999999397</v>
+        <v>0.0002449999999996066</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.01633908370124642</v>
       </c>
       <c r="F39" t="n">
-        <v>36.89573476926059</v>
+        <v>36.89573476926095</v>
       </c>
       <c r="G39" t="n">
-        <v>172.7927702266972</v>
+        <v>172.7927702266971</v>
       </c>
       <c r="H39" t="n">
-        <v>8.637609310148559</v>
+        <v>8.637609310148651</v>
       </c>
       <c r="I39" t="n">
         <v>6.186312769693502</v>
@@ -2471,16 +2471,16 @@
         <v>27.41620526036646</v>
       </c>
       <c r="K39" t="n">
-        <v>5.903801972699477</v>
+        <v>5.903801972699515</v>
       </c>
       <c r="L39" t="n">
-        <v>24.12409010142807</v>
+        <v>24.12409010142832</v>
       </c>
       <c r="M39" t="n">
-        <v>0.1002906960023911</v>
+        <v>0.1002906960023884</v>
       </c>
       <c r="N39" t="n">
-        <v>0.3603085384041647</v>
+        <v>0.3603085384041648</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003174000000001342</v>
+        <v>0.000197999999997478</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>359.697388305565</v>
       </c>
       <c r="F40" t="n">
-        <v>33.56293735571237</v>
+        <v>33.56293735570326</v>
       </c>
       <c r="G40" t="n">
-        <v>65.56651511941105</v>
+        <v>65.56651511941057</v>
       </c>
       <c r="H40" t="n">
-        <v>11.45158321466923</v>
+        <v>11.45158321466516</v>
       </c>
       <c r="I40" t="n">
         <v>20.5252257742755</v>
@@ -2523,16 +2523,16 @@
         <v>45.96040818063756</v>
       </c>
       <c r="K40" t="n">
-        <v>20.23730191368653</v>
+        <v>20.23730191368601</v>
       </c>
       <c r="L40" t="n">
-        <v>39.04029387203141</v>
+        <v>39.04029387201952</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1272151843771076</v>
+        <v>0.1272151843771793</v>
       </c>
       <c r="N40" t="n">
-        <v>0.7653548634480687</v>
+        <v>0.7653548634494111</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003103000000024281</v>
+        <v>0.0003606000000004883</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>359.5785481301934</v>
       </c>
       <c r="F41" t="n">
-        <v>34.1268049485315</v>
+        <v>34.12680494854092</v>
       </c>
       <c r="G41" t="n">
-        <v>91.08348033915618</v>
+        <v>91.08348033915328</v>
       </c>
       <c r="H41" t="n">
-        <v>10.97337271543541</v>
+        <v>10.9733727154395</v>
       </c>
       <c r="I41" t="n">
         <v>24.59356450720858</v>
@@ -2575,16 +2575,16 @@
         <v>38.67756631959967</v>
       </c>
       <c r="K41" t="n">
-        <v>24.25500269973106</v>
+        <v>24.25500269973158</v>
       </c>
       <c r="L41" t="n">
-        <v>34.28718302262384</v>
+        <v>34.28718302263496</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1382853044254295</v>
+        <v>0.1382853044253472</v>
       </c>
       <c r="N41" t="n">
-        <v>0.7761202076295608</v>
+        <v>0.7761202076282071</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0002957000000023413</v>
+        <v>0.0002373000000019942</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.1822643091633721</v>
       </c>
       <c r="F42" t="n">
-        <v>35.7385731311751</v>
+        <v>35.73857313117477</v>
       </c>
       <c r="G42" t="n">
-        <v>132.0761406070465</v>
+        <v>132.0761406070566</v>
       </c>
       <c r="H42" t="n">
-        <v>3.116270050054392</v>
+        <v>3.116270050054709</v>
       </c>
       <c r="I42" t="n">
         <v>7.93230154723043</v>
@@ -2627,16 +2627,16 @@
         <v>39.01438474191893</v>
       </c>
       <c r="K42" t="n">
-        <v>7.553589264792748</v>
+        <v>7.553589264792723</v>
       </c>
       <c r="L42" t="n">
-        <v>30.88411064455765</v>
+        <v>30.88411064455656</v>
       </c>
       <c r="M42" t="n">
-        <v>0.1063190367599792</v>
+        <v>0.106319036759984</v>
       </c>
       <c r="N42" t="n">
-        <v>2.283261241764941</v>
+        <v>2.28326124176503</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003960999999996773</v>
+        <v>0.0001920999999995843</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.08121369692019792</v>
       </c>
       <c r="F43" t="n">
-        <v>35.63692114220445</v>
+        <v>35.63692114220365</v>
       </c>
       <c r="G43" t="n">
-        <v>116.4512778878595</v>
+        <v>116.4512778878669</v>
       </c>
       <c r="H43" t="n">
-        <v>1.788418212964775</v>
+        <v>1.788418212964762</v>
       </c>
       <c r="I43" t="n">
         <v>5.928428201044865</v>
@@ -2679,16 +2679,16 @@
         <v>40.60700288008367</v>
       </c>
       <c r="K43" t="n">
-        <v>5.597244009302894</v>
+        <v>5.59724400930283</v>
       </c>
       <c r="L43" t="n">
-        <v>32.21818379204283</v>
+        <v>32.21818379204178</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1047117399497222</v>
+        <v>0.1047117399497279</v>
       </c>
       <c r="N43" t="n">
-        <v>3.450897949224974</v>
+        <v>3.450897949225222</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.000294199999999023</v>
+        <v>0.0002027999999967278</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.8509857540967</v>
       </c>
       <c r="F44" t="n">
-        <v>33.84587893401297</v>
+        <v>33.84587893400781</v>
       </c>
       <c r="G44" t="n">
-        <v>66.34925580446723</v>
+        <v>66.3492558044677</v>
       </c>
       <c r="H44" t="n">
-        <v>11.94595888093503</v>
+        <v>11.94595888093254</v>
       </c>
       <c r="I44" t="n">
         <v>21.26723767084115</v>
@@ -2731,16 +2731,16 @@
         <v>47.24055450089488</v>
       </c>
       <c r="K44" t="n">
-        <v>21.02458461116899</v>
+        <v>21.02458461116872</v>
       </c>
       <c r="L44" t="n">
-        <v>39.61757538509102</v>
+        <v>39.61757538508403</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1090814494120179</v>
+        <v>0.1090814494120538</v>
       </c>
       <c r="N44" t="n">
-        <v>0.7835869211131259</v>
+        <v>0.7835869211138575</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0002987999999994884</v>
+        <v>0.0001907999999986032</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>359.9227800223966</v>
       </c>
       <c r="F45" t="n">
-        <v>33.79892060149268</v>
+        <v>33.79892060149298</v>
       </c>
       <c r="G45" t="n">
-        <v>18.70613510186242</v>
+        <v>18.70613510186269</v>
       </c>
       <c r="H45" t="n">
-        <v>8.49706267412404</v>
+        <v>8.497062674124031</v>
       </c>
       <c r="I45" t="n">
         <v>6.462352581508514</v>
@@ -2783,16 +2783,16 @@
         <v>49.26789962097028</v>
       </c>
       <c r="K45" t="n">
-        <v>6.142275605548045</v>
+        <v>6.142275605548059</v>
       </c>
       <c r="L45" t="n">
-        <v>41.07619089473253</v>
+        <v>41.0761908947328</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1056401998226997</v>
+        <v>0.1056401998226982</v>
       </c>
       <c r="N45" t="n">
-        <v>0.8465922674819988</v>
+        <v>0.8465922674819848</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0002861000000002889</v>
+        <v>0.0005701000000044587</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.2251844151767598</v>
       </c>
       <c r="F46" t="n">
-        <v>37.39613281918185</v>
+        <v>37.3961328191818</v>
       </c>
       <c r="G46" t="n">
-        <v>171.6236510309291</v>
+        <v>171.6236510309284</v>
       </c>
       <c r="H46" t="n">
-        <v>7.819482789316198</v>
+        <v>7.819482789315799</v>
       </c>
       <c r="I46" t="n">
         <v>6.414402748801739</v>
@@ -2835,16 +2835,16 @@
         <v>33.15455134515927</v>
       </c>
       <c r="K46" t="n">
-        <v>6.010202967188173</v>
+        <v>6.010202967188185</v>
       </c>
       <c r="L46" t="n">
-        <v>25.6371193386571</v>
+        <v>25.63711933865753</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1133304933194993</v>
+        <v>0.1133304933194978</v>
       </c>
       <c r="N46" t="n">
-        <v>3.104285512369569</v>
+        <v>3.104285512369295</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003093000000014001</v>
+        <v>0.0002427000000011503</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.9920875681452</v>
       </c>
       <c r="F47" t="n">
-        <v>36.98534246637783</v>
+        <v>36.9853424663786</v>
       </c>
       <c r="G47" t="n">
-        <v>179.6990355550159</v>
+        <v>179.699035555016</v>
       </c>
       <c r="H47" t="n">
-        <v>9.95926869584431</v>
+        <v>9.959268695845466</v>
       </c>
       <c r="I47" t="n">
         <v>3.467189284049275</v>
@@ -2887,16 +2887,16 @@
         <v>25.92450555328367</v>
       </c>
       <c r="K47" t="n">
-        <v>3.135692279864446</v>
+        <v>3.135692279864471</v>
       </c>
       <c r="L47" t="n">
-        <v>22.45163693310069</v>
+        <v>22.45163693310008</v>
       </c>
       <c r="M47" t="n">
-        <v>0.09577806918534072</v>
+        <v>0.09577806918533943</v>
       </c>
       <c r="N47" t="n">
-        <v>0.4431027702749438</v>
+        <v>0.4431027702752808</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0002812999999974863</v>
+        <v>0.0002240000000028886</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>359.8245372480388</v>
       </c>
       <c r="F48" t="n">
-        <v>35.98558311361134</v>
+        <v>35.98558311361862</v>
       </c>
       <c r="G48" t="n">
-        <v>139.6249578424838</v>
+        <v>139.6249578424802</v>
       </c>
       <c r="H48" t="n">
-        <v>9.201302536673337</v>
+        <v>9.201302536675481</v>
       </c>
       <c r="I48" t="n">
         <v>18.46712300039825</v>
@@ -2939,16 +2939,16 @@
         <v>28.96028508939844</v>
       </c>
       <c r="K48" t="n">
-        <v>18.21508571139663</v>
+        <v>18.21508571139722</v>
       </c>
       <c r="L48" t="n">
-        <v>26.27395586800791</v>
+        <v>26.27395586801407</v>
       </c>
       <c r="M48" t="n">
-        <v>0.1124654577353868</v>
+        <v>0.1124654577353355</v>
       </c>
       <c r="N48" t="n">
-        <v>0.5877906606958951</v>
+        <v>0.5877906606949778</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0002807999999987487</v>
+        <v>0.0003062999999983163</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.2544028427298431</v>
       </c>
       <c r="F49" t="n">
-        <v>34.50533279838249</v>
+        <v>34.50533279838341</v>
       </c>
       <c r="G49" t="n">
-        <v>27.25831552247575</v>
+        <v>27.25831552247864</v>
       </c>
       <c r="H49" t="n">
-        <v>6.812400445014649</v>
+        <v>6.812400445014086</v>
       </c>
       <c r="I49" t="n">
         <v>7.737749257815719</v>
@@ -2991,16 +2991,16 @@
         <v>54.40266989146843</v>
       </c>
       <c r="K49" t="n">
-        <v>7.374593457428614</v>
+        <v>7.374593457428678</v>
       </c>
       <c r="L49" t="n">
-        <v>39.4822862948911</v>
+        <v>39.48228629489125</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1139503392746681</v>
+        <v>0.1139503392746656</v>
       </c>
       <c r="N49" t="n">
-        <v>2.059585290523685</v>
+        <v>2.059585290523827</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003253000000000839</v>
+        <v>0.0002378999999947951</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.2980893959785312</v>
       </c>
       <c r="F50" t="n">
-        <v>37.67905339057338</v>
+        <v>37.67905339057244</v>
       </c>
       <c r="G50" t="n">
-        <v>351.8448857068005</v>
+        <v>351.844885706805</v>
       </c>
       <c r="H50" t="n">
-        <v>1.798138324373026</v>
+        <v>1.798138324373996</v>
       </c>
       <c r="I50" t="n">
         <v>2.206985498596769</v>
@@ -3043,16 +3043,16 @@
         <v>53.83741801538552</v>
       </c>
       <c r="K50" t="n">
-        <v>1.632873517818079</v>
+        <v>1.632873517818054</v>
       </c>
       <c r="L50" t="n">
-        <v>37.2132380721857</v>
+        <v>37.21323807218593</v>
       </c>
       <c r="M50" t="n">
-        <v>0.1245395103995823</v>
+        <v>0.1245395103995845</v>
       </c>
       <c r="N50" t="n">
-        <v>3.112599238467567</v>
+        <v>3.112599238467279</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0002862000000014575</v>
+        <v>0.0002473999999992316</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>0.312947723461975</v>
       </c>
       <c r="F51" t="n">
-        <v>34.51329010629515</v>
+        <v>34.51329010629619</v>
       </c>
       <c r="G51" t="n">
-        <v>113.4267513165685</v>
+        <v>113.4267513165601</v>
       </c>
       <c r="H51" t="n">
-        <v>3.185148007753231</v>
+        <v>3.185148007753286</v>
       </c>
       <c r="I51" t="n">
         <v>9.522643035896857</v>
@@ -3095,16 +3095,16 @@
         <v>42.15412902103607</v>
       </c>
       <c r="K51" t="n">
-        <v>9.100919240514793</v>
+        <v>9.10091924051487</v>
       </c>
       <c r="L51" t="n">
-        <v>30.7640862054872</v>
+        <v>30.76408620548875</v>
       </c>
       <c r="M51" t="n">
-        <v>0.1061659866611188</v>
+        <v>0.1061659866611101</v>
       </c>
       <c r="N51" t="n">
-        <v>3.202103048959494</v>
+        <v>3.202103048959179</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0002810999999987018</v>
+        <v>0.0001977000000010776</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>0.4681056326050967</v>
       </c>
       <c r="F52" t="n">
-        <v>33.53400330185848</v>
+        <v>33.53400330186025</v>
       </c>
       <c r="G52" t="n">
-        <v>143.651398572814</v>
+        <v>143.6513985728153</v>
       </c>
       <c r="H52" t="n">
-        <v>5.42145789462669</v>
+        <v>5.421457894627283</v>
       </c>
       <c r="I52" t="n">
         <v>12.12114158782843</v>
@@ -3147,16 +3147,16 @@
         <v>38.3554914922189</v>
       </c>
       <c r="K52" t="n">
-        <v>11.66359071464625</v>
+        <v>11.66359071464644</v>
       </c>
       <c r="L52" t="n">
-        <v>26.21798578468223</v>
+        <v>26.21798578468337</v>
       </c>
       <c r="M52" t="n">
-        <v>0.1304194148122522</v>
+        <v>0.1304194148122368</v>
       </c>
       <c r="N52" t="n">
-        <v>2.144880017277722</v>
+        <v>2.144880017277396</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003061999999971476</v>
+        <v>0.0001885000000001469</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.08715095200459153</v>
       </c>
       <c r="F53" t="n">
-        <v>35.38916214542483</v>
+        <v>35.38916214542624</v>
       </c>
       <c r="G53" t="n">
-        <v>144.5403200574432</v>
+        <v>144.5403200574391</v>
       </c>
       <c r="H53" t="n">
-        <v>3.668554199387019</v>
+        <v>3.668554199387036</v>
       </c>
       <c r="I53" t="n">
         <v>7.748476824274211</v>
@@ -3199,16 +3199,16 @@
         <v>35.48188845695773</v>
       </c>
       <c r="K53" t="n">
-        <v>7.375749029307103</v>
+        <v>7.37574902930723</v>
       </c>
       <c r="L53" t="n">
-        <v>29.43052867722052</v>
+        <v>29.4305286772221</v>
       </c>
       <c r="M53" t="n">
-        <v>0.1018681990111254</v>
+        <v>0.1018681990111154</v>
       </c>
       <c r="N53" t="n">
-        <v>1.043462039534996</v>
+        <v>1.043462039534796</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003195999999974219</v>
+        <v>0.0001880000000014093</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>359.8441572478157</v>
       </c>
       <c r="F54" t="n">
-        <v>36.16567581039205</v>
+        <v>36.16567581039111</v>
       </c>
       <c r="G54" t="n">
-        <v>123.426467152978</v>
+        <v>123.4264671529856</v>
       </c>
       <c r="H54" t="n">
-        <v>1.918074409547</v>
+        <v>1.918074409547008</v>
       </c>
       <c r="I54" t="n">
         <v>5.48941339683741</v>
@@ -3251,16 +3251,16 @@
         <v>34.1625217894218</v>
       </c>
       <c r="K54" t="n">
-        <v>5.297216119201844</v>
+        <v>5.297216119201767</v>
       </c>
       <c r="L54" t="n">
-        <v>32.41971502130936</v>
+        <v>32.41971502130814</v>
       </c>
       <c r="M54" t="n">
-        <v>0.09632111312896041</v>
+        <v>0.09632111312896662</v>
       </c>
       <c r="N54" t="n">
-        <v>1.804206220857766</v>
+        <v>1.804206220857653</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0003098000000001377</v>
+        <v>0.0001885000000001469</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.9382405399448</v>
       </c>
       <c r="F55" t="n">
-        <v>35.37158994314817</v>
+        <v>35.37158994314934</v>
       </c>
       <c r="G55" t="n">
-        <v>154.7351361476992</v>
+        <v>154.7351361476984</v>
       </c>
       <c r="H55" t="n">
-        <v>8.644477977386071</v>
+        <v>8.644477977386355</v>
       </c>
       <c r="I55" t="n">
         <v>13.68504178555428</v>
@@ -3303,16 +3303,16 @@
         <v>27.82199853704786</v>
       </c>
       <c r="K55" t="n">
-        <v>13.37963353308367</v>
+        <v>13.37963353308377</v>
       </c>
       <c r="L55" t="n">
-        <v>24.02621903428352</v>
+        <v>24.02621903428448</v>
       </c>
       <c r="M55" t="n">
-        <v>0.1179332568899851</v>
+        <v>0.1179332568899757</v>
       </c>
       <c r="N55" t="n">
-        <v>0.6419551561890737</v>
+        <v>0.6419551561888959</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003005999999992071</v>
+        <v>0.0002313000000029319</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>0.5556632233838706</v>
       </c>
       <c r="F56" t="n">
-        <v>32.49506364993826</v>
+        <v>32.49506364993926</v>
       </c>
       <c r="G56" t="n">
-        <v>129.6687194807195</v>
+        <v>129.6687194807181</v>
       </c>
       <c r="H56" t="n">
-        <v>5.059962535277781</v>
+        <v>5.059962535277962</v>
       </c>
       <c r="I56" t="n">
         <v>13.80604339457914</v>
@@ -3355,16 +3355,16 @@
         <v>40.75218031113259</v>
       </c>
       <c r="K56" t="n">
-        <v>13.32724249720673</v>
+        <v>13.32724249720682</v>
       </c>
       <c r="L56" t="n">
-        <v>26.72076133212838</v>
+        <v>26.7207613321294</v>
       </c>
       <c r="M56" t="n">
-        <v>0.1319611613798509</v>
+        <v>0.1319611613798408</v>
       </c>
       <c r="N56" t="n">
-        <v>2.825446051309698</v>
+        <v>2.825446051309537</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003084999999991567</v>
+        <v>0.0001941999999957034</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>0.4871193343902016</v>
       </c>
       <c r="F57" t="n">
-        <v>35.19027681036412</v>
+        <v>35.19027681036385</v>
       </c>
       <c r="G57" t="n">
-        <v>41.41587480273793</v>
+        <v>41.41587480274976</v>
       </c>
       <c r="H57" t="n">
-        <v>2.888835297142236</v>
+        <v>2.888835297141324</v>
       </c>
       <c r="I57" t="n">
         <v>6.567392205827259</v>
@@ -3407,16 +3407,16 @@
         <v>54.58643989705576</v>
       </c>
       <c r="K57" t="n">
-        <v>6.10647285195308</v>
+        <v>6.106472851953042</v>
       </c>
       <c r="L57" t="n">
-        <v>35.37305314430996</v>
+        <v>35.37305314430838</v>
       </c>
       <c r="M57" t="n">
-        <v>0.1354418510509546</v>
+        <v>0.1354418510509619</v>
       </c>
       <c r="N57" t="n">
-        <v>3.325630960529407</v>
+        <v>3.325630960529913</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002813000000010391</v>
+        <v>0.0002050999999951841</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>0.3112929526507688</v>
       </c>
       <c r="F58" t="n">
-        <v>39.30655946527925</v>
+        <v>39.30655946527848</v>
       </c>
       <c r="G58" t="n">
-        <v>181.9090405945213</v>
+        <v>181.9090405945214</v>
       </c>
       <c r="H58" t="n">
-        <v>13.87154395963563</v>
+        <v>13.87154395963459</v>
       </c>
       <c r="I58" t="n">
         <v>3.134105438173524</v>
@@ -3462,13 +3462,13 @@
         <v>2.368676164381968</v>
       </c>
       <c r="L58" t="n">
-        <v>20.07015146998</v>
+        <v>20.07015146998048</v>
       </c>
       <c r="M58" t="n">
-        <v>0.1405899778436142</v>
+        <v>0.140589977843616</v>
       </c>
       <c r="N58" t="n">
-        <v>3.278323815439392</v>
+        <v>3.278323815438995</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0002765999999994051</v>
+        <v>0.0001997000000031335</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0.03931564720407376</v>
       </c>
       <c r="F59" t="n">
-        <v>34.62169942842947</v>
+        <v>34.6216994284299</v>
       </c>
       <c r="G59" t="n">
-        <v>14.78708278782811</v>
+        <v>14.78708278782775</v>
       </c>
       <c r="H59" t="n">
-        <v>3.491883185564163</v>
+        <v>3.491883185564495</v>
       </c>
       <c r="I59" t="n">
         <v>3.955386232874815</v>
@@ -3511,16 +3511,16 @@
         <v>44.14878636314997</v>
       </c>
       <c r="K59" t="n">
-        <v>3.592370287230156</v>
+        <v>3.592370287230207</v>
       </c>
       <c r="L59" t="n">
-        <v>36.1277994140513</v>
+        <v>36.12779941405213</v>
       </c>
       <c r="M59" t="n">
-        <v>0.1164397581786021</v>
+        <v>0.1164397581785977</v>
       </c>
       <c r="N59" t="n">
-        <v>1.402882268947435</v>
+        <v>1.402882268947255</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.000709600000000421</v>
+        <v>0.000190199999998697</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.228055843852356</v>
       </c>
       <c r="F60" t="n">
-        <v>33.14135037066222</v>
+        <v>33.14135037066383</v>
       </c>
       <c r="G60" t="n">
-        <v>81.33956728037833</v>
+        <v>81.3395672803773</v>
       </c>
       <c r="H60" t="n">
-        <v>5.338843287231252</v>
+        <v>5.338843287231687</v>
       </c>
       <c r="I60" t="n">
         <v>14.02411002723861</v>
@@ -3563,16 +3563,16 @@
         <v>42.81185243735961</v>
       </c>
       <c r="K60" t="n">
-        <v>13.63065965633895</v>
+        <v>13.63065965633906</v>
       </c>
       <c r="L60" t="n">
-        <v>32.40202301874056</v>
+        <v>32.40202301874243</v>
       </c>
       <c r="M60" t="n">
-        <v>0.104624619331253</v>
+        <v>0.1046246193312419</v>
       </c>
       <c r="N60" t="n">
-        <v>1.807922780751294</v>
+        <v>1.807922780751037</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003059999999983631</v>
+        <v>0.0002469000000004939</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>0.5007850564184159</v>
       </c>
       <c r="F61" t="n">
-        <v>37.93370710469994</v>
+        <v>37.93370710469959</v>
       </c>
       <c r="G61" t="n">
-        <v>181.1835486811178</v>
+        <v>181.1835486811179</v>
       </c>
       <c r="H61" t="n">
-        <v>14.00057033786946</v>
+        <v>14.00057033786938</v>
       </c>
       <c r="I61" t="n">
         <v>4.618349672385955</v>
@@ -3615,16 +3615,16 @@
         <v>31.77994929725002</v>
       </c>
       <c r="K61" t="n">
-        <v>3.568798975604131</v>
+        <v>3.568798975604068</v>
       </c>
       <c r="L61" t="n">
-        <v>18.55477753077167</v>
+        <v>18.55477753077141</v>
       </c>
       <c r="M61" t="n">
-        <v>0.1733176286107116</v>
+        <v>0.1733176286107187</v>
       </c>
       <c r="N61" t="n">
-        <v>5.978651312363485</v>
+        <v>5.978651312363471</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0002841999999994016</v>
+        <v>0.0001966999999964969</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.2765312979639231</v>
       </c>
       <c r="F62" t="n">
-        <v>35.2446294891154</v>
+        <v>35.24462948911516</v>
       </c>
       <c r="G62" t="n">
-        <v>128.703940075684</v>
+        <v>128.7039400756853</v>
       </c>
       <c r="H62" t="n">
-        <v>3.281959164788814</v>
+        <v>3.281959164788817</v>
       </c>
       <c r="I62" t="n">
         <v>8.681791459262989</v>
@@ -3667,16 +3667,16 @@
         <v>41.54402924555519</v>
       </c>
       <c r="K62" t="n">
-        <v>8.324859277161657</v>
+        <v>8.324859277161645</v>
       </c>
       <c r="L62" t="n">
-        <v>30.48645396041036</v>
+        <v>30.48645396041004</v>
       </c>
       <c r="M62" t="n">
-        <v>0.1270084645587519</v>
+        <v>0.1270084645587543</v>
       </c>
       <c r="N62" t="n">
-        <v>3.331690382760455</v>
+        <v>3.3316903827605</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003416999999998893</v>
+        <v>0.0002032000000014023</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.129448665467937</v>
       </c>
       <c r="F63" t="n">
-        <v>36.28358344461088</v>
+        <v>36.28358344461044</v>
       </c>
       <c r="G63" t="n">
-        <v>163.9639184723464</v>
+        <v>163.9639184723467</v>
       </c>
       <c r="H63" t="n">
-        <v>6.616838533587453</v>
+        <v>6.616838533587373</v>
       </c>
       <c r="I63" t="n">
         <v>7.850039722804902</v>
@@ -3719,16 +3719,16 @@
         <v>32.39652408006119</v>
       </c>
       <c r="K63" t="n">
-        <v>7.539286163519151</v>
+        <v>7.539286163519113</v>
       </c>
       <c r="L63" t="n">
-        <v>26.2629316521266</v>
+        <v>26.26293165212624</v>
       </c>
       <c r="M63" t="n">
-        <v>0.1104326010211621</v>
+        <v>0.1104326010211658</v>
       </c>
       <c r="N63" t="n">
-        <v>1.478022857609294</v>
+        <v>1.478022857609289</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003166000000014435</v>
+        <v>0.0001965999999953283</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0.003697627891110895</v>
       </c>
       <c r="F64" t="n">
-        <v>36.58955677379956</v>
+        <v>36.58955677379969</v>
       </c>
       <c r="G64" t="n">
-        <v>5.289567548987167</v>
+        <v>5.289567548987256</v>
       </c>
       <c r="H64" t="n">
-        <v>5.065192377089937</v>
+        <v>5.065192377089965</v>
       </c>
       <c r="I64" t="n">
         <v>2.741606634097171</v>
@@ -3771,16 +3771,16 @@
         <v>48.02196508739905</v>
       </c>
       <c r="K64" t="n">
-        <v>2.479440419182487</v>
+        <v>2.4794404191825</v>
       </c>
       <c r="L64" t="n">
-        <v>40.06304758255677</v>
+        <v>40.06304758255691</v>
       </c>
       <c r="M64" t="n">
-        <v>0.09355632671077078</v>
+        <v>0.09355632671077012</v>
       </c>
       <c r="N64" t="n">
-        <v>1.433690147797235</v>
+        <v>1.433690147797213</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0002924999999969202</v>
+        <v>0.0001902999999998656</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>0.6416935960554256</v>
       </c>
       <c r="F65" t="n">
-        <v>31.78123579961523</v>
+        <v>31.78123579961353</v>
       </c>
       <c r="G65" t="n">
-        <v>144.2399263467555</v>
+        <v>144.2399263467531</v>
       </c>
       <c r="H65" t="n">
-        <v>6.772978277862798</v>
+        <v>6.772978277862013</v>
       </c>
       <c r="I65" t="n">
         <v>16.10870148266759</v>
@@ -3823,16 +3823,16 @@
         <v>37.27781598912134</v>
       </c>
       <c r="K65" t="n">
-        <v>15.54132408539393</v>
+        <v>15.5413240853937</v>
       </c>
       <c r="L65" t="n">
-        <v>23.42402962186349</v>
+        <v>23.42402962186269</v>
       </c>
       <c r="M65" t="n">
-        <v>0.1539810271287156</v>
+        <v>0.1539810271287346</v>
       </c>
       <c r="N65" t="n">
-        <v>2.191071436385229</v>
+        <v>2.191071436385517</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0002984999999995352</v>
+        <v>0.0002362999999974136</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>359.6699031182305</v>
       </c>
       <c r="F66" t="n">
-        <v>33.63233323549703</v>
+        <v>33.63233323549064</v>
       </c>
       <c r="G66" t="n">
-        <v>59.39003096434222</v>
+        <v>59.39003096434185</v>
       </c>
       <c r="H66" t="n">
-        <v>9.112898240229944</v>
+        <v>9.112898240227532</v>
       </c>
       <c r="I66" t="n">
         <v>16.16170376099309</v>
@@ -3875,16 +3875,16 @@
         <v>43.46372352112631</v>
       </c>
       <c r="K66" t="n">
-        <v>15.85249846738874</v>
+        <v>15.85249846738835</v>
       </c>
       <c r="L66" t="n">
-        <v>38.03001483059882</v>
+        <v>38.03001483059064</v>
       </c>
       <c r="M66" t="n">
-        <v>0.1422645018727854</v>
+        <v>0.1422645018728423</v>
       </c>
       <c r="N66" t="n">
-        <v>0.6833644674208522</v>
+        <v>0.6833644674218899</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003086000000003253</v>
+        <v>0.0001959000000013589</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.2500994469398075</v>
       </c>
       <c r="F67" t="n">
-        <v>36.61393856043075</v>
+        <v>36.61393856043066</v>
       </c>
       <c r="G67" t="n">
-        <v>162.0141700402149</v>
+        <v>162.0141700402147</v>
       </c>
       <c r="H67" t="n">
-        <v>3.314144783310825</v>
+        <v>3.314144783310764</v>
       </c>
       <c r="I67" t="n">
         <v>5.274021781485452</v>
@@ -3927,16 +3927,16 @@
         <v>40.68913562875419</v>
       </c>
       <c r="K67" t="n">
-        <v>4.839733269730367</v>
+        <v>4.839733269730353</v>
       </c>
       <c r="L67" t="n">
-        <v>30.3227095162285</v>
+        <v>30.32270951622849</v>
       </c>
       <c r="M67" t="n">
-        <v>0.1106765658297195</v>
+        <v>0.1106765658297199</v>
       </c>
       <c r="N67" t="n">
-        <v>3.646052818055963</v>
+        <v>3.646052818056003</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0002920999999993512</v>
+        <v>0.0001883999999989783</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>359.5753156907807</v>
       </c>
       <c r="F68" t="n">
-        <v>31.9373354821849</v>
+        <v>31.93733548218501</v>
       </c>
       <c r="G68" t="n">
-        <v>13.19614489319932</v>
+        <v>13.19614489319952</v>
       </c>
       <c r="H68" t="n">
-        <v>8.745941469256787</v>
+        <v>8.745941469256667</v>
       </c>
       <c r="I68" t="n">
         <v>5.062672950318515</v>
@@ -3979,16 +3979,16 @@
         <v>42.43801944024082</v>
       </c>
       <c r="K68" t="n">
-        <v>4.813684940038756</v>
+        <v>4.813684940038768</v>
       </c>
       <c r="L68" t="n">
-        <v>39.67804447110737</v>
+        <v>39.67804447110733</v>
       </c>
       <c r="M68" t="n">
-        <v>0.1238621008196149</v>
+        <v>0.1238621008196147</v>
       </c>
       <c r="N68" t="n">
-        <v>2.783722144118338</v>
+        <v>2.78372214411827</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0002829000000019732</v>
+        <v>0.0001883999999989783</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>359.6614433543339</v>
       </c>
       <c r="F69" t="n">
-        <v>34.32290774217974</v>
+        <v>34.32290774218078</v>
       </c>
       <c r="G69" t="n">
-        <v>92.55205180133291</v>
+        <v>92.55205180133082</v>
       </c>
       <c r="H69" t="n">
-        <v>11.53610264922144</v>
+        <v>11.53610264922203</v>
       </c>
       <c r="I69" t="n">
         <v>25.81153388271712</v>
@@ -4034,13 +4034,13 @@
         <v>25.45236509185088</v>
       </c>
       <c r="L69" t="n">
-        <v>34.43135211133849</v>
+        <v>34.43135211134016</v>
       </c>
       <c r="M69" t="n">
-        <v>0.1279123043467415</v>
+        <v>0.1279123043467314</v>
       </c>
       <c r="N69" t="n">
-        <v>0.7594129115335517</v>
+        <v>0.7594129115334228</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0002931999999979951</v>
+        <v>0.0001941000000016402</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.2833429093115037</v>
       </c>
       <c r="F70" t="n">
-        <v>36.17550189683071</v>
+        <v>36.17550189683087</v>
       </c>
       <c r="G70" t="n">
-        <v>164.9702123000598</v>
+        <v>164.970212300063</v>
       </c>
       <c r="H70" t="n">
-        <v>4.48311052696946</v>
+        <v>4.483110526970154</v>
       </c>
       <c r="I70" t="n">
         <v>6.014679871228592</v>
@@ -4086,13 +4086,13 @@
         <v>5.526786128062071</v>
       </c>
       <c r="L70" t="n">
-        <v>28.49546638739373</v>
+        <v>28.49546638739301</v>
       </c>
       <c r="M70" t="n">
-        <v>0.1192964753950755</v>
+        <v>0.1192964753950774</v>
       </c>
       <c r="N70" t="n">
-        <v>4.25692727523724</v>
+        <v>4.256927275237842</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003254000000012525</v>
+        <v>0.0002391000000017129</v>
       </c>
     </row>
     <row r="71">
@@ -4120,13 +4120,13 @@
         <v>359.7253478704356</v>
       </c>
       <c r="F71" t="n">
-        <v>32.49025686162349</v>
+        <v>32.49025686163065</v>
       </c>
       <c r="G71" t="n">
-        <v>47.90143349826447</v>
+        <v>47.9014334982655</v>
       </c>
       <c r="H71" t="n">
-        <v>11.15569354556312</v>
+        <v>11.15569354556638</v>
       </c>
       <c r="I71" t="n">
         <v>16.08018820099398</v>
@@ -4135,16 +4135,16 @@
         <v>48.38554590561366</v>
       </c>
       <c r="K71" t="n">
-        <v>15.73814895901799</v>
+        <v>15.73814895901842</v>
       </c>
       <c r="L71" t="n">
-        <v>40.36124960813583</v>
+        <v>40.3612496081459</v>
       </c>
       <c r="M71" t="n">
-        <v>0.1269320937171667</v>
+        <v>0.1269320937171096</v>
       </c>
       <c r="N71" t="n">
-        <v>0.8030165807974587</v>
+        <v>0.803016580796339</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003039999999998599</v>
+        <v>0.0001910000000009404</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.7447007775094</v>
       </c>
       <c r="F72" t="n">
-        <v>36.24816465473505</v>
+        <v>36.24816465473399</v>
       </c>
       <c r="G72" t="n">
-        <v>164.0465694178669</v>
+        <v>164.0465694178675</v>
       </c>
       <c r="H72" t="n">
-        <v>10.83034090700818</v>
+        <v>10.83034090700793</v>
       </c>
       <c r="I72" t="n">
         <v>12.56035812480068</v>
@@ -4187,16 +4187,16 @@
         <v>22.16891449794234</v>
       </c>
       <c r="K72" t="n">
-        <v>12.229533608169</v>
+        <v>12.2295336081689</v>
       </c>
       <c r="L72" t="n">
-        <v>21.62635500783974</v>
+        <v>21.62635500783891</v>
       </c>
       <c r="M72" t="n">
-        <v>0.1143129076401682</v>
+        <v>0.1143129076401767</v>
       </c>
       <c r="N72" t="n">
-        <v>0.6857765896502828</v>
+        <v>0.685776589650398</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0002931999999979951</v>
+        <v>0.0001892000000012217</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.1291809449189355</v>
       </c>
       <c r="F73" t="n">
-        <v>35.25759599321333</v>
+        <v>35.25759599321498</v>
       </c>
       <c r="G73" t="n">
-        <v>56.56595197381078</v>
+        <v>56.56595197380553</v>
       </c>
       <c r="H73" t="n">
-        <v>3.359940529007644</v>
+        <v>3.359940529008226</v>
       </c>
       <c r="I73" t="n">
         <v>7.859910572602633</v>
@@ -4239,16 +4239,16 @@
         <v>45.46351225095051</v>
       </c>
       <c r="K73" t="n">
-        <v>7.540254634639549</v>
+        <v>7.540254634639676</v>
       </c>
       <c r="L73" t="n">
-        <v>35.16673267090935</v>
+        <v>35.16673267091172</v>
       </c>
       <c r="M73" t="n">
-        <v>0.1052405457570036</v>
+        <v>0.1052405457569914</v>
       </c>
       <c r="N73" t="n">
-        <v>2.436874845959127</v>
+        <v>2.436874845958682</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003199000000009278</v>
+        <v>0.0001898999999951911</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.9044363502803</v>
       </c>
       <c r="F74" t="n">
-        <v>33.84269540150425</v>
+        <v>33.84269540150521</v>
       </c>
       <c r="G74" t="n">
-        <v>17.37136763871102</v>
+        <v>17.37136763871185</v>
       </c>
       <c r="H74" t="n">
-        <v>9.421362781503637</v>
+        <v>9.421362781503575</v>
       </c>
       <c r="I74" t="n">
         <v>6.377065963047959</v>
@@ -4291,16 +4291,16 @@
         <v>50.40064281793606</v>
       </c>
       <c r="K74" t="n">
-        <v>6.098946767775323</v>
+        <v>6.098946767775374</v>
       </c>
       <c r="L74" t="n">
-        <v>42.25543730218615</v>
+        <v>42.25543730218699</v>
       </c>
       <c r="M74" t="n">
-        <v>0.1102102514521305</v>
+        <v>0.1102102514521257</v>
       </c>
       <c r="N74" t="n">
-        <v>0.784205046985369</v>
+        <v>0.78420504698532</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0002992000000006101</v>
+        <v>0.0002246000000027948</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.826956084607</v>
       </c>
       <c r="F75" t="n">
-        <v>36.23558937857917</v>
+        <v>36.23558937858264</v>
       </c>
       <c r="G75" t="n">
-        <v>112.0640108716037</v>
+        <v>112.0640108716018</v>
       </c>
       <c r="H75" t="n">
-        <v>8.375984063886797</v>
+        <v>8.375984063887842</v>
       </c>
       <c r="I75" t="n">
         <v>19.35755665061183</v>
@@ -4343,16 +4343,16 @@
         <v>34.40684012736449</v>
       </c>
       <c r="K75" t="n">
-        <v>19.17177770062993</v>
+        <v>19.17177770063015</v>
       </c>
       <c r="L75" t="n">
-        <v>31.59577070192869</v>
+        <v>31.59577070193223</v>
       </c>
       <c r="M75" t="n">
-        <v>0.09866514215944722</v>
+        <v>0.09866514215942661</v>
       </c>
       <c r="N75" t="n">
-        <v>0.5603980293389547</v>
+        <v>0.5603980293384974</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003017999999990195</v>
+        <v>0.0002672999999973058</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.8174963518577</v>
       </c>
       <c r="F76" t="n">
-        <v>33.74702194794732</v>
+        <v>33.74702194794614</v>
       </c>
       <c r="G76" t="n">
-        <v>34.24946342549405</v>
+        <v>34.24946342549413</v>
       </c>
       <c r="H76" t="n">
-        <v>10.63769732332021</v>
+        <v>10.63769732331957</v>
       </c>
       <c r="I76" t="n">
         <v>11.46063555869591</v>
@@ -4395,16 +4395,16 @@
         <v>50.37958060079622</v>
       </c>
       <c r="K76" t="n">
-        <v>11.19194152941994</v>
+        <v>11.19194152941987</v>
       </c>
       <c r="L76" t="n">
-        <v>42.49022887945549</v>
+        <v>42.49022887945362</v>
       </c>
       <c r="M76" t="n">
-        <v>0.1024786706396081</v>
+        <v>0.1024786706396163</v>
       </c>
       <c r="N76" t="n">
-        <v>0.7396644809069246</v>
+        <v>0.7396644809071341</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.001197699999998747</v>
+        <v>0.0001949000000038836</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.2128506401928187</v>
       </c>
       <c r="F77" t="n">
-        <v>36.02321209868838</v>
+        <v>36.02321209868767</v>
       </c>
       <c r="G77" t="n">
-        <v>152.4173741032688</v>
+        <v>152.4173741032701</v>
       </c>
       <c r="H77" t="n">
-        <v>5.12055618117705</v>
+        <v>5.120556181177023</v>
       </c>
       <c r="I77" t="n">
         <v>8.76635558354894</v>
@@ -4447,16 +4447,16 @@
         <v>36.83621895458627</v>
       </c>
       <c r="K77" t="n">
-        <v>8.441322212577761</v>
+        <v>8.441322212577697</v>
       </c>
       <c r="L77" t="n">
-        <v>28.26653105272206</v>
+        <v>28.26653105272131</v>
       </c>
       <c r="M77" t="n">
-        <v>0.1105151931652235</v>
+        <v>0.1105151931652292</v>
       </c>
       <c r="N77" t="n">
-        <v>2.595476325881974</v>
+        <v>2.595476325882042</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0003153000000004624</v>
+        <v>0.0001894000000035589</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.7179096067844</v>
       </c>
       <c r="F78" t="n">
-        <v>33.53448941225543</v>
+        <v>33.53448941224943</v>
       </c>
       <c r="G78" t="n">
-        <v>51.79615869035165</v>
+        <v>51.79615869035079</v>
       </c>
       <c r="H78" t="n">
-        <v>11.3793623167353</v>
+        <v>11.37936231673266</v>
       </c>
       <c r="I78" t="n">
         <v>16.84050940313982</v>
@@ -4499,16 +4499,16 @@
         <v>48.06403202229916</v>
       </c>
       <c r="K78" t="n">
-        <v>16.60165698174394</v>
+        <v>16.6016569817436</v>
       </c>
       <c r="L78" t="n">
-        <v>41.07519971582602</v>
+        <v>41.0751997158178</v>
       </c>
       <c r="M78" t="n">
-        <v>0.1145671359854485</v>
+        <v>0.1145671359854917</v>
       </c>
       <c r="N78" t="n">
-        <v>0.6881806999862363</v>
+        <v>0.6881806999871443</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.00029559999999762</v>
+        <v>0.0001881999999966411</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.9326665443774</v>
       </c>
       <c r="F79" t="n">
-        <v>36.2273778511418</v>
+        <v>36.22737785114145</v>
       </c>
       <c r="G79" t="n">
-        <v>166.0693262990195</v>
+        <v>166.0693262990198</v>
       </c>
       <c r="H79" t="n">
-        <v>9.462475295421134</v>
+        <v>9.462475295421056</v>
       </c>
       <c r="I79" t="n">
         <v>10.0027312132912</v>
@@ -4551,16 +4551,16 @@
         <v>25.33373033689035</v>
       </c>
       <c r="K79" t="n">
-        <v>9.700454248249324</v>
+        <v>9.700454248249272</v>
       </c>
       <c r="L79" t="n">
-        <v>22.91766918400078</v>
+        <v>22.91766918400049</v>
       </c>
       <c r="M79" t="n">
-        <v>0.1030158886648561</v>
+        <v>0.1030158886648589</v>
       </c>
       <c r="N79" t="n">
-        <v>0.5407126379106246</v>
+        <v>0.5407126379106819</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0002919000000005667</v>
+        <v>0.000187799999999072</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.9633861588326</v>
       </c>
       <c r="F80" t="n">
-        <v>35.47646617178084</v>
+        <v>35.47646617178069</v>
       </c>
       <c r="G80" t="n">
-        <v>9.027327333337768</v>
+        <v>9.02732733333778</v>
       </c>
       <c r="H80" t="n">
-        <v>6.55038449699702</v>
+        <v>6.550384496996862</v>
       </c>
       <c r="I80" t="n">
         <v>3.606923411926436</v>
@@ -4603,16 +4603,16 @@
         <v>50.73672563365681</v>
       </c>
       <c r="K80" t="n">
-        <v>3.354560630340174</v>
+        <v>3.354560630340161</v>
       </c>
       <c r="L80" t="n">
-        <v>40.69292052856227</v>
+        <v>40.69292052856193</v>
       </c>
       <c r="M80" t="n">
-        <v>0.1086586240432723</v>
+        <v>0.1086586240432739</v>
       </c>
       <c r="N80" t="n">
-        <v>1.436028328371177</v>
+        <v>1.436028328371224</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.000308000000000419</v>
+        <v>0.0002352999999999383</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>0.9949076462310189</v>
       </c>
       <c r="F81" t="n">
-        <v>28.56352281801245</v>
+        <v>28.56352281801288</v>
       </c>
       <c r="G81" t="n">
-        <v>148.7643804885333</v>
+        <v>148.7643804885324</v>
       </c>
       <c r="H81" t="n">
-        <v>6.385179217422742</v>
+        <v>6.385179217422805</v>
       </c>
       <c r="I81" t="n">
         <v>17.1232117211352</v>
@@ -4655,16 +4655,16 @@
         <v>39.09485972400436</v>
       </c>
       <c r="K81" t="n">
-        <v>16.21640590430527</v>
+        <v>16.21640590430534</v>
       </c>
       <c r="L81" t="n">
-        <v>20.19481379749321</v>
+        <v>20.19481379749366</v>
       </c>
       <c r="M81" t="n">
-        <v>0.2570576746920603</v>
+        <v>0.2570576746920487</v>
       </c>
       <c r="N81" t="n">
-        <v>3.146003000517089</v>
+        <v>3.146003000517015</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0002838000000018326</v>
+        <v>0.0001959000000013589</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>359.4300441191555</v>
       </c>
       <c r="F82" t="n">
-        <v>34.65983406148735</v>
+        <v>34.65983406148706</v>
       </c>
       <c r="G82" t="n">
-        <v>83.80339785730111</v>
+        <v>83.80339785729818</v>
       </c>
       <c r="H82" t="n">
-        <v>10.53730564001184</v>
+        <v>10.53730564001197</v>
       </c>
       <c r="I82" t="n">
         <v>22.11552919085654</v>
@@ -4707,16 +4707,16 @@
         <v>39.33727404337365</v>
       </c>
       <c r="K82" t="n">
-        <v>21.85152957081773</v>
+        <v>21.85152957081764</v>
       </c>
       <c r="L82" t="n">
-        <v>35.992657882595</v>
+        <v>35.99265788259537</v>
       </c>
       <c r="M82" t="n">
-        <v>0.143992156109274</v>
+        <v>0.1439921561092735</v>
       </c>
       <c r="N82" t="n">
-        <v>0.6489849928384774</v>
+        <v>0.6489849928385274</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0002861999999979048</v>
+        <v>0.0001896999999999593</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>0.4079701026656091</v>
       </c>
       <c r="F83" t="n">
-        <v>34.37421529736398</v>
+        <v>34.37421529736352</v>
       </c>
       <c r="G83" t="n">
-        <v>116.4808232900563</v>
+        <v>116.4808232900574</v>
       </c>
       <c r="H83" t="n">
-        <v>4.3878151045393</v>
+        <v>4.387815104539226</v>
       </c>
       <c r="I83" t="n">
         <v>12.10179104400886</v>
@@ -4759,16 +4759,16 @@
         <v>42.05119175911687</v>
       </c>
       <c r="K83" t="n">
-        <v>11.77063569837141</v>
+        <v>11.77063569837139</v>
       </c>
       <c r="L83" t="n">
-        <v>30.04085565891504</v>
+        <v>30.0408556589145</v>
       </c>
       <c r="M83" t="n">
-        <v>0.1208688077427497</v>
+        <v>0.1208688077427537</v>
       </c>
       <c r="N83" t="n">
-        <v>2.824300079225132</v>
+        <v>2.824300079225214</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0008459000000016204</v>
+        <v>0.0002251999999955956</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.7478048791732</v>
       </c>
       <c r="F84" t="n">
-        <v>33.20983227763499</v>
+        <v>33.20983227763228</v>
       </c>
       <c r="G84" t="n">
-        <v>43.76965104336944</v>
+        <v>43.76965104336983</v>
       </c>
       <c r="H84" t="n">
-        <v>9.718605958268688</v>
+        <v>9.718605958267364</v>
       </c>
       <c r="I84" t="n">
         <v>13.43287767644303</v>
@@ -4811,16 +4811,16 @@
         <v>46.97805561868334</v>
       </c>
       <c r="K84" t="n">
-        <v>13.11780690777411</v>
+        <v>13.11780690777394</v>
       </c>
       <c r="L84" t="n">
-        <v>40.06017759179387</v>
+        <v>40.06017759178981</v>
       </c>
       <c r="M84" t="n">
-        <v>0.1265575357865421</v>
+        <v>0.1265575357865653</v>
       </c>
       <c r="N84" t="n">
-        <v>0.6915487919556036</v>
+        <v>0.6915487919560902</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003969999999995366</v>
+        <v>0.0001923000000019215</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.7452061341889</v>
       </c>
       <c r="F85" t="n">
-        <v>33.13803071891716</v>
+        <v>33.13803071891888</v>
       </c>
       <c r="G85" t="n">
-        <v>41.47889033728173</v>
+        <v>41.47889033728293</v>
       </c>
       <c r="H85" t="n">
-        <v>10.03633832442625</v>
+        <v>10.03633832442669</v>
       </c>
       <c r="I85" t="n">
         <v>13.12799389676822</v>
@@ -4863,16 +4863,16 @@
         <v>47.93179806456282</v>
       </c>
       <c r="K85" t="n">
-        <v>12.8218111177516</v>
+        <v>12.82181111775173</v>
       </c>
       <c r="L85" t="n">
-        <v>40.55566552008612</v>
+        <v>40.55566552008813</v>
       </c>
       <c r="M85" t="n">
-        <v>0.1171838170519574</v>
+        <v>0.1171838170519461</v>
       </c>
       <c r="N85" t="n">
-        <v>0.7135801998816974</v>
+        <v>0.7135801998814717</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003013000000002819</v>
+        <v>0.0002454999999983443</v>
       </c>
     </row>
     <row r="86">
@@ -4903,10 +4903,10 @@
         <v>34.88289606151197</v>
       </c>
       <c r="G86" t="n">
-        <v>5.528666713727263</v>
+        <v>5.528666713727225</v>
       </c>
       <c r="H86" t="n">
-        <v>5.157778825856234</v>
+        <v>5.157778825856322</v>
       </c>
       <c r="I86" t="n">
         <v>3.043806361309816</v>
@@ -4918,13 +4918,13 @@
         <v>2.66819464330639</v>
       </c>
       <c r="L86" t="n">
-        <v>38.46877298913772</v>
+        <v>38.46877298913783</v>
       </c>
       <c r="M86" t="n">
-        <v>0.120038032282012</v>
+        <v>0.1200380322820116</v>
       </c>
       <c r="N86" t="n">
-        <v>1.211940741439098</v>
+        <v>1.211940741439066</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0002843000000005702</v>
+        <v>0.0002254999999991014</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.9469447836763</v>
       </c>
       <c r="F87" t="n">
-        <v>34.82503914173391</v>
+        <v>34.82503914172828</v>
       </c>
       <c r="G87" t="n">
-        <v>112.3291530043401</v>
+        <v>112.3291530043441</v>
       </c>
       <c r="H87" t="n">
-        <v>7.613675934621781</v>
+        <v>7.61367593462015</v>
       </c>
       <c r="I87" t="n">
         <v>18.76061115182669</v>
@@ -4967,16 +4967,16 @@
         <v>35.21970397644842</v>
       </c>
       <c r="K87" t="n">
-        <v>18.45356054820681</v>
+        <v>18.45356054820643</v>
       </c>
       <c r="L87" t="n">
-        <v>30.29525997353439</v>
+        <v>30.29525997352855</v>
       </c>
       <c r="M87" t="n">
-        <v>0.1093510776344909</v>
+        <v>0.1093510776345306</v>
       </c>
       <c r="N87" t="n">
-        <v>0.736382599838531</v>
+        <v>0.7363825998394488</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0005260000000006926</v>
+        <v>0.0001892000000012217</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.1788857156901902</v>
       </c>
       <c r="F88" t="n">
-        <v>35.59067785963177</v>
+        <v>35.59067785963367</v>
       </c>
       <c r="G88" t="n">
-        <v>113.933889373662</v>
+        <v>113.933889373658</v>
       </c>
       <c r="H88" t="n">
-        <v>2.121909895182978</v>
+        <v>2.121909895183187</v>
       </c>
       <c r="I88" t="n">
         <v>6.791947165725001</v>
@@ -5019,16 +5019,16 @@
         <v>42.97845363301155</v>
       </c>
       <c r="K88" t="n">
-        <v>6.446312302625557</v>
+        <v>6.44631230262571</v>
       </c>
       <c r="L88" t="n">
-        <v>32.14438952198861</v>
+        <v>32.14438952199057</v>
       </c>
       <c r="M88" t="n">
-        <v>0.1113646985482517</v>
+        <v>0.1113646985482382</v>
       </c>
       <c r="N88" t="n">
-        <v>3.976038660294748</v>
+        <v>3.97603866029444</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003199000000009278</v>
+        <v>0.0001911999999961722</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.888287343744</v>
       </c>
       <c r="F89" t="n">
-        <v>34.87653247998531</v>
+        <v>34.87653247998106</v>
       </c>
       <c r="G89" t="n">
-        <v>118.2462417640405</v>
+        <v>118.2462417640426</v>
       </c>
       <c r="H89" t="n">
-        <v>12.29343018507949</v>
+        <v>12.29343018507766</v>
       </c>
       <c r="I89" t="n">
         <v>29.4243494329187</v>
@@ -5071,16 +5071,16 @@
         <v>33.52902134866883</v>
       </c>
       <c r="K89" t="n">
-        <v>29.14858187161268</v>
+        <v>29.14858187161247</v>
       </c>
       <c r="L89" t="n">
-        <v>28.9439666679013</v>
+        <v>28.94396666789701</v>
       </c>
       <c r="M89" t="n">
-        <v>0.1104929844626546</v>
+        <v>0.1104929844626846</v>
       </c>
       <c r="N89" t="n">
-        <v>0.6742297040031334</v>
+        <v>0.6742297040037655</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0002899000000020635</v>
+        <v>0.000193899999999303</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.9679347087545</v>
       </c>
       <c r="F90" t="n">
-        <v>35.56518216849623</v>
+        <v>35.56518216849111</v>
       </c>
       <c r="G90" t="n">
-        <v>118.9965715911263</v>
+        <v>118.996571591134</v>
       </c>
       <c r="H90" t="n">
-        <v>7.848094215897679</v>
+        <v>7.848094215896388</v>
       </c>
       <c r="I90" t="n">
         <v>18.57224489984314</v>
@@ -5123,16 +5123,16 @@
         <v>34.2946546952799</v>
       </c>
       <c r="K90" t="n">
-        <v>18.30144250131933</v>
+        <v>18.30144250131905</v>
       </c>
       <c r="L90" t="n">
-        <v>29.89570652970499</v>
+        <v>29.89570652969919</v>
       </c>
       <c r="M90" t="n">
-        <v>0.106162432699975</v>
+        <v>0.1061624327000109</v>
       </c>
       <c r="N90" t="n">
-        <v>0.6829767755406795</v>
+        <v>0.6829767755415783</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003211000000007402</v>
+        <v>0.0002444000000068058</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>0.5081190079641331</v>
       </c>
       <c r="F91" t="n">
-        <v>33.51003246461992</v>
+        <v>33.51003246462096</v>
       </c>
       <c r="G91" t="n">
-        <v>145.0038832555763</v>
+        <v>145.0038832555728</v>
       </c>
       <c r="H91" t="n">
-        <v>5.813093596591803</v>
+        <v>5.813093596591753</v>
       </c>
       <c r="I91" t="n">
         <v>12.74316145486036</v>
@@ -5175,16 +5175,16 @@
         <v>38.33487342784704</v>
       </c>
       <c r="K91" t="n">
-        <v>12.25366238324518</v>
+        <v>12.25366238324525</v>
       </c>
       <c r="L91" t="n">
-        <v>25.76489983601858</v>
+        <v>25.76489983601995</v>
       </c>
       <c r="M91" t="n">
-        <v>0.1335436374279677</v>
+        <v>0.1335436374279559</v>
       </c>
       <c r="N91" t="n">
-        <v>2.151647133721092</v>
+        <v>2.151647133720943</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0002898000000008949</v>
+        <v>0.0001905000000022028</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.06734600045980398</v>
       </c>
       <c r="F92" t="n">
-        <v>34.88932283125413</v>
+        <v>34.88932283125462</v>
       </c>
       <c r="G92" t="n">
-        <v>49.65222289151967</v>
+        <v>49.65222289150107</v>
       </c>
       <c r="H92" t="n">
-        <v>1.776110346105408</v>
+        <v>1.776110346106079</v>
       </c>
       <c r="I92" t="n">
         <v>5.21318424796729</v>
@@ -5227,16 +5227,16 @@
         <v>42.76553142273538</v>
       </c>
       <c r="K92" t="n">
-        <v>4.816749036307916</v>
+        <v>4.816749036307979</v>
       </c>
       <c r="L92" t="n">
-        <v>33.77208625180194</v>
+        <v>33.77208625180349</v>
       </c>
       <c r="M92" t="n">
-        <v>0.1147415314780552</v>
+        <v>0.1147415314780477</v>
       </c>
       <c r="N92" t="n">
-        <v>2.59454643297891</v>
+        <v>2.594546432978028</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0002892999999986046</v>
+        <v>0.0001888999999977159</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.1818363053204348</v>
       </c>
       <c r="F93" t="n">
-        <v>34.84668377876564</v>
+        <v>34.84668377876589</v>
       </c>
       <c r="G93" t="n">
-        <v>73.52928372481603</v>
+        <v>73.52928372481998</v>
       </c>
       <c r="H93" t="n">
-        <v>2.688471323229895</v>
+        <v>2.688471323229856</v>
       </c>
       <c r="I93" t="n">
         <v>7.863442946019621</v>
@@ -5279,16 +5279,16 @@
         <v>44.53239056119353</v>
       </c>
       <c r="K93" t="n">
-        <v>7.519068166497452</v>
+        <v>7.519068166497478</v>
       </c>
       <c r="L93" t="n">
-        <v>33.43231746882278</v>
+        <v>33.4323174688228</v>
       </c>
       <c r="M93" t="n">
-        <v>0.1043680604731263</v>
+        <v>0.1043680604731254</v>
       </c>
       <c r="N93" t="n">
-        <v>2.967920099241161</v>
+        <v>2.967920099241274</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0004452999999990936</v>
+        <v>0.0002008000000017773</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.9309102274653</v>
       </c>
       <c r="F94" t="n">
-        <v>36.41810292780964</v>
+        <v>36.41810292780791</v>
       </c>
       <c r="G94" t="n">
-        <v>160.9671446360387</v>
+        <v>160.9671446360406</v>
       </c>
       <c r="H94" t="n">
-        <v>11.47012466499765</v>
+        <v>11.47012466499745</v>
       </c>
       <c r="I94" t="n">
         <v>15.35104641020007</v>
@@ -5331,16 +5331,16 @@
         <v>24.24394169017284</v>
       </c>
       <c r="K94" t="n">
-        <v>15.11436119476347</v>
+        <v>15.11436119476336</v>
       </c>
       <c r="L94" t="n">
-        <v>21.53497962757527</v>
+        <v>21.53497962757355</v>
       </c>
       <c r="M94" t="n">
-        <v>0.09202222586802888</v>
+        <v>0.09202222586804015</v>
       </c>
       <c r="N94" t="n">
-        <v>0.4822778378065729</v>
+        <v>0.4822778378068059</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0002904000000008011</v>
+        <v>0.0001902999999998656</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>359.5109405758969</v>
       </c>
       <c r="F95" t="n">
-        <v>35.38690532485444</v>
+        <v>35.38690532486209</v>
       </c>
       <c r="G95" t="n">
-        <v>97.90214891046055</v>
+        <v>97.90214891045933</v>
       </c>
       <c r="H95" t="n">
-        <v>9.819930272983424</v>
+        <v>9.819930272986223</v>
       </c>
       <c r="I95" t="n">
         <v>22.21315077475493</v>
@@ -5383,16 +5383,16 @@
         <v>35.75139630592476</v>
       </c>
       <c r="K95" t="n">
-        <v>21.92934471866858</v>
+        <v>21.92934471866905</v>
       </c>
       <c r="L95" t="n">
-        <v>33.57876937797174</v>
+        <v>33.57876937797987</v>
       </c>
       <c r="M95" t="n">
-        <v>0.1224911155579657</v>
+        <v>0.1224911155579097</v>
       </c>
       <c r="N95" t="n">
-        <v>0.6989592688826696</v>
+        <v>0.6989592688815638</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0002887999999998669</v>
+        <v>0.0002380999999971323</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.776964035346</v>
       </c>
       <c r="F96" t="n">
-        <v>35.42637971484919</v>
+        <v>35.42637971485154</v>
       </c>
       <c r="G96" t="n">
-        <v>124.8136049253934</v>
+        <v>124.8136049253907</v>
       </c>
       <c r="H96" t="n">
-        <v>8.659022129208914</v>
+        <v>8.659022129209545</v>
       </c>
       <c r="I96" t="n">
         <v>19.90993072089658</v>
@@ -5435,16 +5435,16 @@
         <v>31.41112353494288</v>
       </c>
       <c r="K96" t="n">
-        <v>19.58656659103006</v>
+        <v>19.58656659103019</v>
       </c>
       <c r="L96" t="n">
-        <v>28.52829644949497</v>
+        <v>28.52829644949744</v>
       </c>
       <c r="M96" t="n">
-        <v>0.1110078156769881</v>
+        <v>0.1110078156769712</v>
       </c>
       <c r="N96" t="n">
-        <v>0.7462679108118664</v>
+        <v>0.7462679108116199</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0002861000000002889</v>
+        <v>0.0002017000000051894</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.1992866698657448</v>
       </c>
       <c r="F97" t="n">
-        <v>35.72832368084541</v>
+        <v>35.72832368084528</v>
       </c>
       <c r="G97" t="n">
-        <v>105.8706192284501</v>
+        <v>105.8706192284472</v>
       </c>
       <c r="H97" t="n">
-        <v>2.259418530429114</v>
+        <v>2.259418530429077</v>
       </c>
       <c r="I97" t="n">
         <v>7.230991953515353</v>
@@ -5490,13 +5490,13 @@
         <v>6.874599474776788</v>
       </c>
       <c r="L97" t="n">
-        <v>32.60470750104278</v>
+        <v>32.6047075010428</v>
       </c>
       <c r="M97" t="n">
-        <v>0.1044954830936735</v>
+        <v>0.104495483093674</v>
       </c>
       <c r="N97" t="n">
-        <v>3.526093358127126</v>
+        <v>3.526093358127069</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.000318199999998825</v>
+        <v>0.0001974999999987403</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.9790456675702</v>
       </c>
       <c r="F98" t="n">
-        <v>33.23302931517077</v>
+        <v>33.23302931516983</v>
       </c>
       <c r="G98" t="n">
-        <v>39.26755473941311</v>
+        <v>39.26755473941569</v>
       </c>
       <c r="H98" t="n">
-        <v>10.38347054717868</v>
+        <v>10.38347054717734</v>
       </c>
       <c r="I98" t="n">
         <v>12.95227042657602</v>
@@ -5539,16 +5539,16 @@
         <v>51.74105893626461</v>
       </c>
       <c r="K98" t="n">
-        <v>12.66091064024484</v>
+        <v>12.66091064024482</v>
       </c>
       <c r="L98" t="n">
-        <v>41.26673801481195</v>
+        <v>41.26673801480933</v>
       </c>
       <c r="M98" t="n">
-        <v>0.1075575184793753</v>
+        <v>0.1075575184793866</v>
       </c>
       <c r="N98" t="n">
-        <v>1.060185550585624</v>
+        <v>1.060185550586021</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.00029559999999762</v>
+        <v>0.0002009000000029459</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>0.5253563253876018</v>
       </c>
       <c r="F99" t="n">
-        <v>31.79146165350409</v>
+        <v>31.79146165349669</v>
       </c>
       <c r="G99" t="n">
-        <v>161.3120734525156</v>
+        <v>161.3120734525199</v>
       </c>
       <c r="H99" t="n">
-        <v>12.7159289174452</v>
+        <v>12.71592891744237</v>
       </c>
       <c r="I99" t="n">
         <v>23.90850916660207</v>
@@ -5591,16 +5591,16 @@
         <v>24.13895389620888</v>
       </c>
       <c r="K99" t="n">
-        <v>23.33976175283088</v>
+        <v>23.33976175283</v>
       </c>
       <c r="L99" t="n">
-        <v>16.03092592920104</v>
+        <v>16.03092592919598</v>
       </c>
       <c r="M99" t="n">
-        <v>0.1329070292716203</v>
+        <v>0.1329070292717205</v>
       </c>
       <c r="N99" t="n">
-        <v>1.297540188835272</v>
+        <v>1.297540188836439</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0003227999999992903</v>
+        <v>0.0001961999999977593</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.8578848756203</v>
       </c>
       <c r="F100" t="n">
-        <v>34.68766068768488</v>
+        <v>34.68766068769073</v>
       </c>
       <c r="G100" t="n">
-        <v>131.2570423175227</v>
+        <v>131.2570423175194</v>
       </c>
       <c r="H100" t="n">
-        <v>8.165909759959002</v>
+        <v>8.16590975996068</v>
       </c>
       <c r="I100" t="n">
         <v>18.60137800648538</v>
@@ -5643,16 +5643,16 @@
         <v>31.16710803662699</v>
       </c>
       <c r="K100" t="n">
-        <v>18.26269053616503</v>
+        <v>18.2626905361655</v>
       </c>
       <c r="L100" t="n">
-        <v>26.9676641738532</v>
+        <v>26.96766417385848</v>
       </c>
       <c r="M100" t="n">
-        <v>0.1207758831916899</v>
+        <v>0.120775883191645</v>
       </c>
       <c r="N100" t="n">
-        <v>0.7412057386076653</v>
+        <v>0.7412057386069235</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003479999999989047</v>
+        <v>0.000240400000002694</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.04270765281058021</v>
       </c>
       <c r="F101" t="n">
-        <v>35.02723376879668</v>
+        <v>35.02723376879754</v>
       </c>
       <c r="G101" t="n">
-        <v>128.1921719787762</v>
+        <v>128.1921719787742</v>
       </c>
       <c r="H101" t="n">
-        <v>7.700200885616997</v>
+        <v>7.700200885617143</v>
       </c>
       <c r="I101" t="n">
         <v>17.85727084796145</v>
@@ -5695,16 +5695,16 @@
         <v>33.52305968980325</v>
       </c>
       <c r="K101" t="n">
-        <v>17.58024499844554</v>
+        <v>17.58024499844558</v>
       </c>
       <c r="L101" t="n">
-        <v>28.00561719401142</v>
+        <v>28.00561719401247</v>
       </c>
       <c r="M101" t="n">
-        <v>0.1028817804221927</v>
+        <v>0.1028817804221862</v>
       </c>
       <c r="N101" t="n">
-        <v>0.8496246688214941</v>
+        <v>0.8496246688213358</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0002971999999985542</v>
+        <v>0.000198399999995047</v>
       </c>
     </row>
   </sheetData>
